--- a/REGULAR/TREASURY/ATIENZA, JULIE ANN ANCIANO.xlsx
+++ b/REGULAR/TREASURY/ATIENZA, JULIE ANN ANCIANO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57014796-4D36-47FD-8AAC-ADD7E7BE104C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE431445-653D-4B63-84B4-A9F819DEA902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -28,20 +28,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -317,6 +309,12 @@
   </si>
   <si>
     <t>9/8,9/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2/20,24/2023</t>
   </si>
 </sst>
 </file>
@@ -744,27 +742,6 @@
   </cellStyles>
   <dxfs count="30">
     <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -818,6 +795,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1241,7 +1239,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K90" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K191" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="24"/>
@@ -1281,15 +1279,15 @@
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{8317D857-E066-4C2C-90C4-A4A434AACF26}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{6D1EC6B8-6CC7-4C9E-A78B-A383A07C2530}" name="EARNED " dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{6D1EC6B8-6CC7-4C9E-A78B-A383A07C2530}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{165509CE-A588-4457-9122-A2CE13CC583C}" name="Absence Undertime  W/ Pay" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{51120E51-597A-4B6E-8418-C3200C8D33BE}" name="BALANCE " dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{165509CE-A588-4457-9122-A2CE13CC583C}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{51120E51-597A-4B6E-8418-C3200C8D33BE}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4BD8F533-31A6-4F51-A6DD-B317C8151956}" name="Absence Undertime  W/O Pay" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{A042CC19-D78F-4800-8F97-B2D85C323477}" name="REMARKS" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{4BD8F533-31A6-4F51-A6DD-B317C8151956}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{A042CC19-D78F-4800-8F97-B2D85C323477}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1600,11 +1598,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K90"/>
+  <dimension ref="A2:K191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A68" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
+      <pane ySplit="3576" topLeftCell="A75" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1773,7 +1771,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>49</v>
+        <v>51.5</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1783,7 +1781,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>75</v>
+        <v>76.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3192,7 +3190,9 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="34"/>
+      <c r="A78" s="31" t="s">
+        <v>92</v>
+      </c>
       <c r="B78" s="21"/>
       <c r="C78" s="14"/>
       <c r="D78" s="35"/>
@@ -3208,15 +3208,19 @@
       <c r="K78" s="21"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="34"/>
+      <c r="A79" s="34">
+        <v>44927</v>
+      </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="35"/>
       <c r="E79" s="9"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="35"/>
       <c r="I79" s="9"/>
@@ -3224,24 +3228,37 @@
       <c r="K79" s="21"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="34"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
+      <c r="A80" s="34">
+        <f>EDATE(A79,1)</f>
+        <v>44958</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="35"/>
       <c r="E80" s="9"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H80" s="35"/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H80" s="35">
+        <v>1</v>
+      </c>
       <c r="I80" s="9"/>
       <c r="J80" s="12"/>
-      <c r="K80" s="21"/>
+      <c r="K80" s="39">
+        <v>44974</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="34"/>
-      <c r="B81" s="21"/>
+      <c r="B81" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="C81" s="14"/>
       <c r="D81" s="35"/>
       <c r="E81" s="9"/>
@@ -3253,11 +3270,15 @@
       <c r="H81" s="35"/>
       <c r="I81" s="9"/>
       <c r="J81" s="12"/>
-      <c r="K81" s="21"/>
+      <c r="K81" s="39">
+        <v>44984</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="34"/>
-      <c r="B82" s="21"/>
+      <c r="B82" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="C82" s="14"/>
       <c r="D82" s="35"/>
       <c r="E82" s="9"/>
@@ -3269,10 +3290,15 @@
       <c r="H82" s="35"/>
       <c r="I82" s="9"/>
       <c r="J82" s="12"/>
-      <c r="K82" s="21"/>
+      <c r="K82" s="39" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="34"/>
+      <c r="A83" s="34">
+        <f>EDATE(A80,1)</f>
+        <v>44986</v>
+      </c>
       <c r="B83" s="21"/>
       <c r="C83" s="14"/>
       <c r="D83" s="35"/>
@@ -3288,7 +3314,10 @@
       <c r="K83" s="21"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="34"/>
+      <c r="A84" s="34">
+        <f t="shared" ref="A84:A146" si="1">EDATE(A83,1)</f>
+        <v>45017</v>
+      </c>
       <c r="B84" s="21"/>
       <c r="C84" s="14"/>
       <c r="D84" s="35"/>
@@ -3304,7 +3333,10 @@
       <c r="K84" s="21"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="34"/>
+      <c r="A85" s="34">
+        <f t="shared" si="1"/>
+        <v>45047</v>
+      </c>
       <c r="B85" s="21"/>
       <c r="C85" s="14"/>
       <c r="D85" s="35"/>
@@ -3320,7 +3352,10 @@
       <c r="K85" s="21"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="34"/>
+      <c r="A86" s="34">
+        <f t="shared" si="1"/>
+        <v>45078</v>
+      </c>
       <c r="B86" s="21"/>
       <c r="C86" s="14"/>
       <c r="D86" s="35"/>
@@ -3336,7 +3371,10 @@
       <c r="K86" s="21"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="34"/>
+      <c r="A87" s="34">
+        <f t="shared" si="1"/>
+        <v>45108</v>
+      </c>
       <c r="B87" s="21"/>
       <c r="C87" s="14"/>
       <c r="D87" s="35"/>
@@ -3352,7 +3390,10 @@
       <c r="K87" s="21"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="34"/>
+      <c r="A88" s="34">
+        <f t="shared" si="1"/>
+        <v>45139</v>
+      </c>
       <c r="B88" s="21"/>
       <c r="C88" s="14"/>
       <c r="D88" s="35"/>
@@ -3368,7 +3409,10 @@
       <c r="K88" s="21"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="34"/>
+      <c r="A89" s="34">
+        <f t="shared" si="1"/>
+        <v>45170</v>
+      </c>
       <c r="B89" s="21"/>
       <c r="C89" s="14"/>
       <c r="D89" s="35"/>
@@ -3384,20 +3428,1942 @@
       <c r="K89" s="21"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="52"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="37"/>
+      <c r="A90" s="34">
+        <f t="shared" si="1"/>
+        <v>45200</v>
+      </c>
+      <c r="B90" s="21"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="35"/>
       <c r="E90" s="9"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="36" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H90" s="37"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H90" s="35"/>
       <c r="I90" s="9"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="16"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="21"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="34">
+        <f t="shared" si="1"/>
+        <v>45231</v>
+      </c>
+      <c r="B91" s="21"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H91" s="35"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="21"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="34">
+        <f t="shared" si="1"/>
+        <v>45261</v>
+      </c>
+      <c r="B92" s="16"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="36" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H92" s="37"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="16"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="34">
+        <f t="shared" si="1"/>
+        <v>45292</v>
+      </c>
+      <c r="B93" s="21"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H93" s="35"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="21"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="34">
+        <f t="shared" si="1"/>
+        <v>45323</v>
+      </c>
+      <c r="B94" s="21"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H94" s="35"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="21"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="34">
+        <f t="shared" si="1"/>
+        <v>45352</v>
+      </c>
+      <c r="B95" s="21"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H95" s="35"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="21"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="34">
+        <f t="shared" si="1"/>
+        <v>45383</v>
+      </c>
+      <c r="B96" s="21"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H96" s="35"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="21"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="34">
+        <f t="shared" si="1"/>
+        <v>45413</v>
+      </c>
+      <c r="B97" s="21"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H97" s="35"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="21"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="34">
+        <f t="shared" si="1"/>
+        <v>45444</v>
+      </c>
+      <c r="B98" s="21"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H98" s="35"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="21"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="34">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
+      <c r="B99" s="21"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H99" s="35"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="21"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="34">
+        <f t="shared" si="1"/>
+        <v>45505</v>
+      </c>
+      <c r="B100" s="21"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H100" s="35"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="21"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="34">
+        <f t="shared" si="1"/>
+        <v>45536</v>
+      </c>
+      <c r="B101" s="21"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H101" s="35"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="21"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="34">
+        <f t="shared" si="1"/>
+        <v>45566</v>
+      </c>
+      <c r="B102" s="21"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H102" s="35"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="21"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="34">
+        <f t="shared" si="1"/>
+        <v>45597</v>
+      </c>
+      <c r="B103" s="21"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H103" s="35"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="21"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="34">
+        <f t="shared" si="1"/>
+        <v>45627</v>
+      </c>
+      <c r="B104" s="21"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H104" s="35"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="21"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="34">
+        <f t="shared" si="1"/>
+        <v>45658</v>
+      </c>
+      <c r="B105" s="21"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H105" s="35"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="21"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="34">
+        <f t="shared" si="1"/>
+        <v>45689</v>
+      </c>
+      <c r="B106" s="21"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H106" s="35"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="21"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="34">
+        <f t="shared" si="1"/>
+        <v>45717</v>
+      </c>
+      <c r="B107" s="21"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H107" s="35"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="21"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="34">
+        <f t="shared" si="1"/>
+        <v>45748</v>
+      </c>
+      <c r="B108" s="21"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H108" s="35"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="21"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="34">
+        <f t="shared" si="1"/>
+        <v>45778</v>
+      </c>
+      <c r="B109" s="21"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H109" s="35"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="21"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="34">
+        <f t="shared" si="1"/>
+        <v>45809</v>
+      </c>
+      <c r="B110" s="21"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H110" s="35"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="21"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="34">
+        <f t="shared" si="1"/>
+        <v>45839</v>
+      </c>
+      <c r="B111" s="21"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H111" s="35"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="21"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="34">
+        <f t="shared" si="1"/>
+        <v>45870</v>
+      </c>
+      <c r="B112" s="21"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H112" s="35"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="21"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="34">
+        <f t="shared" si="1"/>
+        <v>45901</v>
+      </c>
+      <c r="B113" s="21"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H113" s="35"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="21"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="34">
+        <f t="shared" si="1"/>
+        <v>45931</v>
+      </c>
+      <c r="B114" s="21"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H114" s="35"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="21"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="34">
+        <f t="shared" si="1"/>
+        <v>45962</v>
+      </c>
+      <c r="B115" s="21"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H115" s="35"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="21"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="34">
+        <f t="shared" si="1"/>
+        <v>45992</v>
+      </c>
+      <c r="B116" s="21"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H116" s="35"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="21"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="34">
+        <f t="shared" si="1"/>
+        <v>46023</v>
+      </c>
+      <c r="B117" s="21"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H117" s="35"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="21"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="34">
+        <f t="shared" si="1"/>
+        <v>46054</v>
+      </c>
+      <c r="B118" s="21"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H118" s="35"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="21"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="34">
+        <f t="shared" si="1"/>
+        <v>46082</v>
+      </c>
+      <c r="B119" s="21"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H119" s="35"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="21"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="34">
+        <f t="shared" si="1"/>
+        <v>46113</v>
+      </c>
+      <c r="B120" s="21"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="35"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H120" s="35"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="21"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="34">
+        <f t="shared" si="1"/>
+        <v>46143</v>
+      </c>
+      <c r="B121" s="21"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H121" s="35"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="21"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="34">
+        <f t="shared" si="1"/>
+        <v>46174</v>
+      </c>
+      <c r="B122" s="21"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H122" s="35"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="21"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="34">
+        <f t="shared" si="1"/>
+        <v>46204</v>
+      </c>
+      <c r="B123" s="21"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H123" s="35"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="21"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="34">
+        <f t="shared" si="1"/>
+        <v>46235</v>
+      </c>
+      <c r="B124" s="21"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H124" s="35"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="21"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="34">
+        <f t="shared" si="1"/>
+        <v>46266</v>
+      </c>
+      <c r="B125" s="21"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="35"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H125" s="35"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="21"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="34">
+        <f t="shared" si="1"/>
+        <v>46296</v>
+      </c>
+      <c r="B126" s="21"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H126" s="35"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="21"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="34">
+        <f t="shared" si="1"/>
+        <v>46327</v>
+      </c>
+      <c r="B127" s="21"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="35"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H127" s="35"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="21"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="34">
+        <f t="shared" si="1"/>
+        <v>46357</v>
+      </c>
+      <c r="B128" s="21"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H128" s="35"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="21"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="34">
+        <f t="shared" si="1"/>
+        <v>46388</v>
+      </c>
+      <c r="B129" s="21"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="35"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="35"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="21"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="34">
+        <f t="shared" si="1"/>
+        <v>46419</v>
+      </c>
+      <c r="B130" s="21"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="35"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="21"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="34">
+        <f t="shared" si="1"/>
+        <v>46447</v>
+      </c>
+      <c r="B131" s="21"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="35"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="35"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="21"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="34">
+        <f t="shared" si="1"/>
+        <v>46478</v>
+      </c>
+      <c r="B132" s="21"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="35"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="21"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="34">
+        <f t="shared" si="1"/>
+        <v>46508</v>
+      </c>
+      <c r="B133" s="21"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="35"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="21"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="34">
+        <f t="shared" si="1"/>
+        <v>46539</v>
+      </c>
+      <c r="B134" s="21"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="35"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="35"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="21"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="34">
+        <f t="shared" si="1"/>
+        <v>46569</v>
+      </c>
+      <c r="B135" s="21"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="35"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="21"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="34">
+        <f t="shared" si="1"/>
+        <v>46600</v>
+      </c>
+      <c r="B136" s="21"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="35"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="21"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="34">
+        <f t="shared" si="1"/>
+        <v>46631</v>
+      </c>
+      <c r="B137" s="21"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="35"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="21"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="34">
+        <f t="shared" si="1"/>
+        <v>46661</v>
+      </c>
+      <c r="B138" s="21"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="35"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="21"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="34">
+        <f t="shared" si="1"/>
+        <v>46692</v>
+      </c>
+      <c r="B139" s="21"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="35"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="21"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="34">
+        <f t="shared" si="1"/>
+        <v>46722</v>
+      </c>
+      <c r="B140" s="21"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="35"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="21"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="34">
+        <f t="shared" si="1"/>
+        <v>46753</v>
+      </c>
+      <c r="B141" s="21"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="35"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="21"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="34">
+        <f t="shared" si="1"/>
+        <v>46784</v>
+      </c>
+      <c r="B142" s="21"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="35"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="21"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="34">
+        <f t="shared" si="1"/>
+        <v>46813</v>
+      </c>
+      <c r="B143" s="21"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="35"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="35"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="21"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="34">
+        <f t="shared" si="1"/>
+        <v>46844</v>
+      </c>
+      <c r="B144" s="21"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="35"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="35"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="21"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="34">
+        <f t="shared" si="1"/>
+        <v>46874</v>
+      </c>
+      <c r="B145" s="21"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="35"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="35"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="21"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="34">
+        <f t="shared" si="1"/>
+        <v>46905</v>
+      </c>
+      <c r="B146" s="21"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="35"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="35"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="21"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="34">
+        <f t="shared" ref="A147:A191" si="2">EDATE(A146,1)</f>
+        <v>46935</v>
+      </c>
+      <c r="B147" s="21"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="35"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="35"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="21"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="34">
+        <f t="shared" si="2"/>
+        <v>46966</v>
+      </c>
+      <c r="B148" s="21"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="35"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="35"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="21"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="34">
+        <f t="shared" si="2"/>
+        <v>46997</v>
+      </c>
+      <c r="B149" s="21"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="35"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H149" s="35"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="21"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="34">
+        <f t="shared" si="2"/>
+        <v>47027</v>
+      </c>
+      <c r="B150" s="21"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H150" s="35"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="21"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="34">
+        <f t="shared" si="2"/>
+        <v>47058</v>
+      </c>
+      <c r="B151" s="21"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="35"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="35"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="21"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="34">
+        <f t="shared" si="2"/>
+        <v>47088</v>
+      </c>
+      <c r="B152" s="21"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="35"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="21"/>
+      <c r="G152" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H152" s="35"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="21"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="34">
+        <f t="shared" si="2"/>
+        <v>47119</v>
+      </c>
+      <c r="B153" s="21"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="35"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H153" s="35"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="21"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="34">
+        <f t="shared" si="2"/>
+        <v>47150</v>
+      </c>
+      <c r="B154" s="21"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="35"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H154" s="35"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="21"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="34">
+        <f t="shared" si="2"/>
+        <v>47178</v>
+      </c>
+      <c r="B155" s="21"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="35"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H155" s="35"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="21"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="34">
+        <f t="shared" si="2"/>
+        <v>47209</v>
+      </c>
+      <c r="B156" s="21"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="35"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H156" s="35"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="21"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="34">
+        <f t="shared" si="2"/>
+        <v>47239</v>
+      </c>
+      <c r="B157" s="21"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="35"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H157" s="35"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="21"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="34">
+        <f t="shared" si="2"/>
+        <v>47270</v>
+      </c>
+      <c r="B158" s="21"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="35"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H158" s="35"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="21"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="34">
+        <f t="shared" si="2"/>
+        <v>47300</v>
+      </c>
+      <c r="B159" s="21"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="35"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H159" s="35"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="21"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="34">
+        <f t="shared" si="2"/>
+        <v>47331</v>
+      </c>
+      <c r="B160" s="21"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="35"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H160" s="35"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="12"/>
+      <c r="K160" s="21"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="34">
+        <f t="shared" si="2"/>
+        <v>47362</v>
+      </c>
+      <c r="B161" s="21"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="35"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H161" s="35"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="21"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="34">
+        <f t="shared" si="2"/>
+        <v>47392</v>
+      </c>
+      <c r="B162" s="21"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="35"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H162" s="35"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="12"/>
+      <c r="K162" s="21"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="34">
+        <f t="shared" si="2"/>
+        <v>47423</v>
+      </c>
+      <c r="B163" s="21"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="35"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H163" s="35"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="12"/>
+      <c r="K163" s="21"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="34">
+        <f t="shared" si="2"/>
+        <v>47453</v>
+      </c>
+      <c r="B164" s="21"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="35"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="21"/>
+      <c r="G164" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H164" s="35"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="21"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="34">
+        <f t="shared" si="2"/>
+        <v>47484</v>
+      </c>
+      <c r="B165" s="21"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="35"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H165" s="35"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="21"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="34">
+        <f t="shared" si="2"/>
+        <v>47515</v>
+      </c>
+      <c r="B166" s="21"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="35"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H166" s="35"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="12"/>
+      <c r="K166" s="21"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="34">
+        <f t="shared" si="2"/>
+        <v>47543</v>
+      </c>
+      <c r="B167" s="21"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="35"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H167" s="35"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="12"/>
+      <c r="K167" s="21"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="34">
+        <f t="shared" si="2"/>
+        <v>47574</v>
+      </c>
+      <c r="B168" s="21"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="35"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H168" s="35"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="21"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="34">
+        <f t="shared" si="2"/>
+        <v>47604</v>
+      </c>
+      <c r="B169" s="21"/>
+      <c r="C169" s="14"/>
+      <c r="D169" s="35"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H169" s="35"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="12"/>
+      <c r="K169" s="21"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="34">
+        <f t="shared" si="2"/>
+        <v>47635</v>
+      </c>
+      <c r="B170" s="21"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="35"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="21"/>
+      <c r="G170" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H170" s="35"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="21"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="34">
+        <f t="shared" si="2"/>
+        <v>47665</v>
+      </c>
+      <c r="B171" s="21"/>
+      <c r="C171" s="14"/>
+      <c r="D171" s="35"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H171" s="35"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="21"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="34">
+        <f t="shared" si="2"/>
+        <v>47696</v>
+      </c>
+      <c r="B172" s="21"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="35"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="21"/>
+      <c r="G172" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H172" s="35"/>
+      <c r="I172" s="9"/>
+      <c r="J172" s="12"/>
+      <c r="K172" s="21"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="34">
+        <f t="shared" si="2"/>
+        <v>47727</v>
+      </c>
+      <c r="B173" s="21"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="35"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H173" s="35"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="12"/>
+      <c r="K173" s="21"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="34">
+        <f t="shared" si="2"/>
+        <v>47757</v>
+      </c>
+      <c r="B174" s="21"/>
+      <c r="C174" s="14"/>
+      <c r="D174" s="35"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="21"/>
+      <c r="G174" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H174" s="35"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="12"/>
+      <c r="K174" s="21"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="34">
+        <f t="shared" si="2"/>
+        <v>47788</v>
+      </c>
+      <c r="B175" s="21"/>
+      <c r="C175" s="14"/>
+      <c r="D175" s="35"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="21"/>
+      <c r="G175" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H175" s="35"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="12"/>
+      <c r="K175" s="21"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="34">
+        <f t="shared" si="2"/>
+        <v>47818</v>
+      </c>
+      <c r="B176" s="21"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="35"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="21"/>
+      <c r="G176" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H176" s="35"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="12"/>
+      <c r="K176" s="21"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="34">
+        <f t="shared" si="2"/>
+        <v>47849</v>
+      </c>
+      <c r="B177" s="21"/>
+      <c r="C177" s="14"/>
+      <c r="D177" s="35"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="21"/>
+      <c r="G177" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H177" s="35"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="12"/>
+      <c r="K177" s="21"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="34">
+        <f t="shared" si="2"/>
+        <v>47880</v>
+      </c>
+      <c r="B178" s="21"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="35"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H178" s="35"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="12"/>
+      <c r="K178" s="21"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="34">
+        <f t="shared" si="2"/>
+        <v>47908</v>
+      </c>
+      <c r="B179" s="21"/>
+      <c r="C179" s="14"/>
+      <c r="D179" s="35"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="21"/>
+      <c r="G179" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H179" s="35"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="21"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="34">
+        <f t="shared" si="2"/>
+        <v>47939</v>
+      </c>
+      <c r="B180" s="21"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="35"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="21"/>
+      <c r="G180" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H180" s="35"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="21"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="34">
+        <f t="shared" si="2"/>
+        <v>47969</v>
+      </c>
+      <c r="B181" s="21"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="35"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="21"/>
+      <c r="G181" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H181" s="35"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="12"/>
+      <c r="K181" s="21"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="34">
+        <f t="shared" si="2"/>
+        <v>48000</v>
+      </c>
+      <c r="B182" s="21"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="35"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="21"/>
+      <c r="G182" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H182" s="35"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="12"/>
+      <c r="K182" s="21"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="34">
+        <f t="shared" si="2"/>
+        <v>48030</v>
+      </c>
+      <c r="B183" s="21"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="35"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="21"/>
+      <c r="G183" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H183" s="35"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="12"/>
+      <c r="K183" s="21"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="34">
+        <f t="shared" si="2"/>
+        <v>48061</v>
+      </c>
+      <c r="B184" s="21"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="35"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="21"/>
+      <c r="G184" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H184" s="35"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="12"/>
+      <c r="K184" s="21"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="34">
+        <f t="shared" si="2"/>
+        <v>48092</v>
+      </c>
+      <c r="B185" s="21"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="35"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="21"/>
+      <c r="G185" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H185" s="35"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="12"/>
+      <c r="K185" s="21"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="34">
+        <f t="shared" si="2"/>
+        <v>48122</v>
+      </c>
+      <c r="B186" s="21"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="35"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="21"/>
+      <c r="G186" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H186" s="35"/>
+      <c r="I186" s="9"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="21"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="34">
+        <f t="shared" si="2"/>
+        <v>48153</v>
+      </c>
+      <c r="B187" s="21"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="35"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="21"/>
+      <c r="G187" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H187" s="35"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="21"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="34">
+        <f t="shared" si="2"/>
+        <v>48183</v>
+      </c>
+      <c r="B188" s="21"/>
+      <c r="C188" s="14"/>
+      <c r="D188" s="35"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="21"/>
+      <c r="G188" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H188" s="35"/>
+      <c r="I188" s="9"/>
+      <c r="J188" s="12"/>
+      <c r="K188" s="21"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="34">
+        <f t="shared" si="2"/>
+        <v>48214</v>
+      </c>
+      <c r="B189" s="21"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="35"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="21"/>
+      <c r="G189" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H189" s="35"/>
+      <c r="I189" s="9"/>
+      <c r="J189" s="12"/>
+      <c r="K189" s="21"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="34">
+        <f t="shared" si="2"/>
+        <v>48245</v>
+      </c>
+      <c r="B190" s="21"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="35"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="21"/>
+      <c r="G190" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H190" s="35"/>
+      <c r="I190" s="9"/>
+      <c r="J190" s="12"/>
+      <c r="K190" s="21"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="34">
+        <f t="shared" si="2"/>
+        <v>48274</v>
+      </c>
+      <c r="B191" s="21"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="35"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="21"/>
+      <c r="G191" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H191" s="35"/>
+      <c r="I191" s="9"/>
+      <c r="J191" s="12"/>
+      <c r="K191" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3448,9 +5414,9 @@
   <dimension ref="A2:K156"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3864" topLeftCell="A106" activePane="bottomLeft"/>
+      <pane ySplit="3864" topLeftCell="A130" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F138" sqref="F138"/>
+      <selection pane="bottomLeft" activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/REGULAR/TREASURY/ATIENZA, JULIE ANN ANCIANO.xlsx
+++ b/REGULAR/TREASURY/ATIENZA, JULIE ANN ANCIANO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE431445-653D-4B63-84B4-A9F819DEA902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A817E622-863F-4F78-9241-4108F0A82578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="95">
   <si>
     <t>PERIOD</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>2/20,24/2023</t>
+  </si>
+  <si>
+    <t>4/19,25/2023</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1605,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A75" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1771,7 +1774,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>51.5</v>
+        <v>50.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1781,7 +1784,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>76.5</v>
+        <v>76.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3299,28 +3302,40 @@
         <f>EDATE(A80,1)</f>
         <v>44986</v>
       </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="14"/>
+      <c r="B83" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="35"/>
       <c r="E83" s="9"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H83" s="35"/>
+      <c r="G83" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H83" s="35">
+        <v>1</v>
+      </c>
       <c r="I83" s="9"/>
       <c r="J83" s="12"/>
-      <c r="K83" s="21"/>
+      <c r="K83" s="39">
+        <v>44987</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="34">
         <f t="shared" ref="A84:A146" si="1">EDATE(A83,1)</f>
         <v>45017</v>
       </c>
-      <c r="B84" s="21"/>
+      <c r="B84" s="21" t="s">
+        <v>64</v>
+      </c>
       <c r="C84" s="14"/>
-      <c r="D84" s="35"/>
+      <c r="D84" s="35">
+        <v>2</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="21"/>
       <c r="G84" s="14" t="str">
@@ -3330,7 +3345,9 @@
       <c r="H84" s="35"/>
       <c r="I84" s="9"/>
       <c r="J84" s="12"/>
-      <c r="K84" s="21"/>
+      <c r="K84" s="21" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="34">
@@ -8836,17 +8853,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{81D96A05-FF04-45D4-9C46-B0B2AA4E8856}">

--- a/REGULAR/TREASURY/ATIENZA, JULIE ANN ANCIANO.xlsx
+++ b/REGULAR/TREASURY/ATIENZA, JULIE ANN ANCIANO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A817E622-863F-4F78-9241-4108F0A82578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="95">
   <si>
     <t>PERIOD</t>
   </si>
@@ -323,7 +322,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -971,7 +970,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1213,7 +1211,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1242,25 +1239,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K191" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K191" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1272,25 +1269,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1CAEF0DA-2293-440C-AA4F-70E86CCD2A1B}" name="Table13" displayName="Table13" ref="A8:K156" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K156" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{CAE651FE-E72A-4B5F-A039-4E2556EFFA73}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{C5C15D1E-B72B-41D1-9DE9-45F26916DF74}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{1AD9A4BA-E51E-4364-8726-09BAD7EB4A3C}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{6765D4CE-8A2C-40A3-BBC3-DF80ED9009EC}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{8138B2FB-1A7B-4F1C-8BF8-255D9DCF7A81}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8317D857-E066-4C2C-90C4-A4A434AACF26}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{6D1EC6B8-6CC7-4C9E-A78B-A383A07C2530}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{165509CE-A588-4457-9122-A2CE13CC583C}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{51120E51-597A-4B6E-8418-C3200C8D33BE}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4BD8F533-31A6-4F51-A6DD-B317C8151956}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{A042CC19-D78F-4800-8F97-B2D85C323477}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1597,33 +1594,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A75" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
+      <pane ySplit="3690" topLeftCell="A75" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1646,7 +1643,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1670,7 +1667,7 @@
       </c>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1692,7 +1689,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1700,7 +1697,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="33"/>
@@ -1713,7 +1710,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="53" t="s">
@@ -1730,7 +1727,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1765,7 +1762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1774,7 +1771,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>50.75</v>
+        <v>51</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1784,12 +1781,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>76.75</v>
+        <v>78</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>28</v>
       </c>
@@ -1811,7 +1808,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -1831,7 +1828,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -1851,7 +1848,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43160</v>
       </c>
@@ -1871,7 +1868,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>43191</v>
       </c>
@@ -1891,7 +1888,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43221</v>
       </c>
@@ -1911,7 +1908,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>43252</v>
       </c>
@@ -1931,7 +1928,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -1951,7 +1948,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>43313</v>
       </c>
@@ -1971,7 +1968,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>43344</v>
       </c>
@@ -1991,7 +1988,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>43374</v>
       </c>
@@ -2011,7 +2008,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43405</v>
       </c>
@@ -2031,7 +2028,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>43435</v>
       </c>
@@ -2055,7 +2052,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>30</v>
       </c>
@@ -2073,7 +2070,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>43466</v>
       </c>
@@ -2093,7 +2090,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>43497</v>
       </c>
@@ -2113,7 +2110,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>43525</v>
       </c>
@@ -2133,7 +2130,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>43556</v>
       </c>
@@ -2153,7 +2150,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>43586</v>
       </c>
@@ -2173,7 +2170,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>43617</v>
       </c>
@@ -2193,7 +2190,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>43647</v>
       </c>
@@ -2213,7 +2210,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>43678</v>
       </c>
@@ -2233,7 +2230,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>43709</v>
       </c>
@@ -2253,7 +2250,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>43739</v>
       </c>
@@ -2273,7 +2270,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>43770</v>
       </c>
@@ -2293,7 +2290,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>43800</v>
       </c>
@@ -2317,7 +2314,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>31</v>
       </c>
@@ -2335,7 +2332,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>43831</v>
       </c>
@@ -2355,7 +2352,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>43862</v>
       </c>
@@ -2375,7 +2372,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>43891</v>
       </c>
@@ -2395,7 +2392,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>43922</v>
       </c>
@@ -2415,7 +2412,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>43952</v>
       </c>
@@ -2435,7 +2432,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>43983</v>
       </c>
@@ -2455,7 +2452,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>44013</v>
       </c>
@@ -2475,7 +2472,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44044</v>
       </c>
@@ -2495,7 +2492,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>44075</v>
       </c>
@@ -2515,7 +2512,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>44105</v>
       </c>
@@ -2535,7 +2532,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>44136</v>
       </c>
@@ -2555,7 +2552,7 @@
       <c r="J47" s="13"/>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>44166</v>
       </c>
@@ -2579,7 +2576,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>32</v>
       </c>
@@ -2597,7 +2594,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>44197</v>
       </c>
@@ -2617,7 +2614,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>44228</v>
       </c>
@@ -2637,7 +2634,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>44256</v>
       </c>
@@ -2657,7 +2654,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>44287</v>
       </c>
@@ -2677,7 +2674,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>44317</v>
       </c>
@@ -2697,7 +2694,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>44348</v>
       </c>
@@ -2717,7 +2714,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>44378</v>
       </c>
@@ -2737,7 +2734,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>44409</v>
       </c>
@@ -2757,7 +2754,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>44440</v>
       </c>
@@ -2777,7 +2774,7 @@
       <c r="J58" s="13"/>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>44470</v>
       </c>
@@ -2797,7 +2794,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>44501</v>
       </c>
@@ -2817,7 +2814,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>44531</v>
       </c>
@@ -2841,7 +2838,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
         <v>33</v>
       </c>
@@ -2859,7 +2856,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>44562</v>
       </c>
@@ -2879,7 +2876,7 @@
       <c r="J63" s="13"/>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="34">
         <f>EDATE(A63,1)</f>
         <v>44593</v>
@@ -2900,7 +2897,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="34">
         <f>EDATE(A64,1)</f>
         <v>44621</v>
@@ -2921,7 +2918,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="34">
         <f t="shared" ref="A66:A72" si="0">EDATE(A65,1)</f>
         <v>44652</v>
@@ -2942,7 +2939,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="39"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="34">
         <f>EDATE(A66,1)</f>
         <v>44682</v>
@@ -2963,7 +2960,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="34">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -2984,7 +2981,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="34">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -3005,7 +3002,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="34">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -3026,7 +3023,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="34">
         <f t="shared" si="0"/>
         <v>44805</v>
@@ -3047,7 +3044,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="34">
         <f t="shared" si="0"/>
         <v>44835</v>
@@ -3074,7 +3071,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="34"/>
       <c r="B73" s="16" t="s">
         <v>58</v>
@@ -3096,7 +3093,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="34">
         <v>44866</v>
       </c>
@@ -3122,7 +3119,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="34"/>
       <c r="B75" s="16" t="s">
         <v>58</v>
@@ -3144,7 +3141,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="34">
         <v>44896</v>
       </c>
@@ -3170,7 +3167,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="34"/>
       <c r="B77" s="21" t="s">
         <v>58</v>
@@ -3192,7 +3189,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
         <v>92</v>
       </c>
@@ -3210,7 +3207,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="34">
         <v>44927</v>
       </c>
@@ -3230,7 +3227,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="34">
         <f>EDATE(A79,1)</f>
         <v>44958</v>
@@ -3257,7 +3254,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="34"/>
       <c r="B81" s="21" t="s">
         <v>35</v>
@@ -3277,7 +3274,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="34"/>
       <c r="B82" s="21" t="s">
         <v>71</v>
@@ -3297,7 +3294,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="34">
         <f>EDATE(A80,1)</f>
         <v>44986</v>
@@ -3324,7 +3321,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="34">
         <f t="shared" ref="A84:A146" si="1">EDATE(A83,1)</f>
         <v>45017</v>
@@ -3332,15 +3329,17 @@
       <c r="B84" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C84" s="14"/>
+      <c r="C84" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="35">
         <v>2</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="35"/>
       <c r="I84" s="9"/>
@@ -3349,14 +3348,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="34">
         <f t="shared" si="1"/>
         <v>45047</v>
       </c>
-      <c r="B85" s="21"/>
+      <c r="B85" s="21" t="s">
+        <v>60</v>
+      </c>
       <c r="C85" s="14"/>
-      <c r="D85" s="35"/>
+      <c r="D85" s="35">
+        <v>1</v>
+      </c>
       <c r="E85" s="9"/>
       <c r="F85" s="21"/>
       <c r="G85" s="14" t="str">
@@ -3366,9 +3369,11 @@
       <c r="H85" s="35"/>
       <c r="I85" s="9"/>
       <c r="J85" s="12"/>
-      <c r="K85" s="21"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="39">
+        <v>45058</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="34">
         <f t="shared" si="1"/>
         <v>45078</v>
@@ -3387,7 +3392,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="34">
         <f t="shared" si="1"/>
         <v>45108</v>
@@ -3406,7 +3411,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="34">
         <f t="shared" si="1"/>
         <v>45139</v>
@@ -3425,7 +3430,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="34">
         <f t="shared" si="1"/>
         <v>45170</v>
@@ -3444,7 +3449,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="34">
         <f t="shared" si="1"/>
         <v>45200</v>
@@ -3463,7 +3468,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="34">
         <f t="shared" si="1"/>
         <v>45231</v>
@@ -3482,7 +3487,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="34">
         <f t="shared" si="1"/>
         <v>45261</v>
@@ -3501,7 +3506,7 @@
       <c r="J92" s="13"/>
       <c r="K92" s="16"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="34">
         <f t="shared" si="1"/>
         <v>45292</v>
@@ -3520,7 +3525,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="34">
         <f t="shared" si="1"/>
         <v>45323</v>
@@ -3539,7 +3544,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="34">
         <f t="shared" si="1"/>
         <v>45352</v>
@@ -3558,7 +3563,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="34">
         <f t="shared" si="1"/>
         <v>45383</v>
@@ -3577,7 +3582,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="34">
         <f t="shared" si="1"/>
         <v>45413</v>
@@ -3596,7 +3601,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="34">
         <f t="shared" si="1"/>
         <v>45444</v>
@@ -3615,7 +3620,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="34">
         <f t="shared" si="1"/>
         <v>45474</v>
@@ -3634,7 +3639,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="34">
         <f t="shared" si="1"/>
         <v>45505</v>
@@ -3653,7 +3658,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="34">
         <f t="shared" si="1"/>
         <v>45536</v>
@@ -3672,7 +3677,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="34">
         <f t="shared" si="1"/>
         <v>45566</v>
@@ -3691,7 +3696,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="34">
         <f t="shared" si="1"/>
         <v>45597</v>
@@ -3710,7 +3715,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="34">
         <f t="shared" si="1"/>
         <v>45627</v>
@@ -3729,7 +3734,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="34">
         <f t="shared" si="1"/>
         <v>45658</v>
@@ -3748,7 +3753,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="34">
         <f t="shared" si="1"/>
         <v>45689</v>
@@ -3767,7 +3772,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="34">
         <f t="shared" si="1"/>
         <v>45717</v>
@@ -3786,7 +3791,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="34">
         <f t="shared" si="1"/>
         <v>45748</v>
@@ -3805,7 +3810,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="34">
         <f t="shared" si="1"/>
         <v>45778</v>
@@ -3824,7 +3829,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="34">
         <f t="shared" si="1"/>
         <v>45809</v>
@@ -3843,7 +3848,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="34">
         <f t="shared" si="1"/>
         <v>45839</v>
@@ -3862,7 +3867,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="34">
         <f t="shared" si="1"/>
         <v>45870</v>
@@ -3881,7 +3886,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="34">
         <f t="shared" si="1"/>
         <v>45901</v>
@@ -3900,7 +3905,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="34">
         <f t="shared" si="1"/>
         <v>45931</v>
@@ -3919,7 +3924,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="34">
         <f t="shared" si="1"/>
         <v>45962</v>
@@ -3938,7 +3943,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="34">
         <f t="shared" si="1"/>
         <v>45992</v>
@@ -3957,7 +3962,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="34">
         <f t="shared" si="1"/>
         <v>46023</v>
@@ -3976,7 +3981,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="34">
         <f t="shared" si="1"/>
         <v>46054</v>
@@ -3995,7 +4000,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="34">
         <f t="shared" si="1"/>
         <v>46082</v>
@@ -4014,7 +4019,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="34">
         <f t="shared" si="1"/>
         <v>46113</v>
@@ -4033,7 +4038,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="34">
         <f t="shared" si="1"/>
         <v>46143</v>
@@ -4052,7 +4057,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="34">
         <f t="shared" si="1"/>
         <v>46174</v>
@@ -4071,7 +4076,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="34">
         <f t="shared" si="1"/>
         <v>46204</v>
@@ -4090,7 +4095,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="34">
         <f t="shared" si="1"/>
         <v>46235</v>
@@ -4109,7 +4114,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="34">
         <f t="shared" si="1"/>
         <v>46266</v>
@@ -4128,7 +4133,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="34">
         <f t="shared" si="1"/>
         <v>46296</v>
@@ -4147,7 +4152,7 @@
       <c r="J126" s="12"/>
       <c r="K126" s="21"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="34">
         <f t="shared" si="1"/>
         <v>46327</v>
@@ -4166,7 +4171,7 @@
       <c r="J127" s="12"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="34">
         <f t="shared" si="1"/>
         <v>46357</v>
@@ -4185,7 +4190,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="34">
         <f t="shared" si="1"/>
         <v>46388</v>
@@ -4204,7 +4209,7 @@
       <c r="J129" s="12"/>
       <c r="K129" s="21"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="34">
         <f t="shared" si="1"/>
         <v>46419</v>
@@ -4223,7 +4228,7 @@
       <c r="J130" s="12"/>
       <c r="K130" s="21"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="34">
         <f t="shared" si="1"/>
         <v>46447</v>
@@ -4242,7 +4247,7 @@
       <c r="J131" s="12"/>
       <c r="K131" s="21"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="34">
         <f t="shared" si="1"/>
         <v>46478</v>
@@ -4261,7 +4266,7 @@
       <c r="J132" s="12"/>
       <c r="K132" s="21"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="34">
         <f t="shared" si="1"/>
         <v>46508</v>
@@ -4280,7 +4285,7 @@
       <c r="J133" s="12"/>
       <c r="K133" s="21"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="34">
         <f t="shared" si="1"/>
         <v>46539</v>
@@ -4299,7 +4304,7 @@
       <c r="J134" s="12"/>
       <c r="K134" s="21"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="34">
         <f t="shared" si="1"/>
         <v>46569</v>
@@ -4318,7 +4323,7 @@
       <c r="J135" s="12"/>
       <c r="K135" s="21"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="34">
         <f t="shared" si="1"/>
         <v>46600</v>
@@ -4337,7 +4342,7 @@
       <c r="J136" s="12"/>
       <c r="K136" s="21"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="34">
         <f t="shared" si="1"/>
         <v>46631</v>
@@ -4356,7 +4361,7 @@
       <c r="J137" s="12"/>
       <c r="K137" s="21"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="34">
         <f t="shared" si="1"/>
         <v>46661</v>
@@ -4375,7 +4380,7 @@
       <c r="J138" s="12"/>
       <c r="K138" s="21"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="34">
         <f t="shared" si="1"/>
         <v>46692</v>
@@ -4394,7 +4399,7 @@
       <c r="J139" s="12"/>
       <c r="K139" s="21"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="34">
         <f t="shared" si="1"/>
         <v>46722</v>
@@ -4413,7 +4418,7 @@
       <c r="J140" s="12"/>
       <c r="K140" s="21"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="34">
         <f t="shared" si="1"/>
         <v>46753</v>
@@ -4432,7 +4437,7 @@
       <c r="J141" s="12"/>
       <c r="K141" s="21"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="34">
         <f t="shared" si="1"/>
         <v>46784</v>
@@ -4451,7 +4456,7 @@
       <c r="J142" s="12"/>
       <c r="K142" s="21"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="34">
         <f t="shared" si="1"/>
         <v>46813</v>
@@ -4470,7 +4475,7 @@
       <c r="J143" s="12"/>
       <c r="K143" s="21"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="34">
         <f t="shared" si="1"/>
         <v>46844</v>
@@ -4489,7 +4494,7 @@
       <c r="J144" s="12"/>
       <c r="K144" s="21"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="34">
         <f t="shared" si="1"/>
         <v>46874</v>
@@ -4508,7 +4513,7 @@
       <c r="J145" s="12"/>
       <c r="K145" s="21"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="34">
         <f t="shared" si="1"/>
         <v>46905</v>
@@ -4527,7 +4532,7 @@
       <c r="J146" s="12"/>
       <c r="K146" s="21"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="34">
         <f t="shared" ref="A147:A191" si="2">EDATE(A146,1)</f>
         <v>46935</v>
@@ -4546,7 +4551,7 @@
       <c r="J147" s="12"/>
       <c r="K147" s="21"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="34">
         <f t="shared" si="2"/>
         <v>46966</v>
@@ -4565,7 +4570,7 @@
       <c r="J148" s="12"/>
       <c r="K148" s="21"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="34">
         <f t="shared" si="2"/>
         <v>46997</v>
@@ -4584,7 +4589,7 @@
       <c r="J149" s="12"/>
       <c r="K149" s="21"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="34">
         <f t="shared" si="2"/>
         <v>47027</v>
@@ -4603,7 +4608,7 @@
       <c r="J150" s="12"/>
       <c r="K150" s="21"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="34">
         <f t="shared" si="2"/>
         <v>47058</v>
@@ -4622,7 +4627,7 @@
       <c r="J151" s="12"/>
       <c r="K151" s="21"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="34">
         <f t="shared" si="2"/>
         <v>47088</v>
@@ -4641,7 +4646,7 @@
       <c r="J152" s="12"/>
       <c r="K152" s="21"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="34">
         <f t="shared" si="2"/>
         <v>47119</v>
@@ -4660,7 +4665,7 @@
       <c r="J153" s="12"/>
       <c r="K153" s="21"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="34">
         <f t="shared" si="2"/>
         <v>47150</v>
@@ -4679,7 +4684,7 @@
       <c r="J154" s="12"/>
       <c r="K154" s="21"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="34">
         <f t="shared" si="2"/>
         <v>47178</v>
@@ -4698,7 +4703,7 @@
       <c r="J155" s="12"/>
       <c r="K155" s="21"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="34">
         <f t="shared" si="2"/>
         <v>47209</v>
@@ -4717,7 +4722,7 @@
       <c r="J156" s="12"/>
       <c r="K156" s="21"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="34">
         <f t="shared" si="2"/>
         <v>47239</v>
@@ -4736,7 +4741,7 @@
       <c r="J157" s="12"/>
       <c r="K157" s="21"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="34">
         <f t="shared" si="2"/>
         <v>47270</v>
@@ -4755,7 +4760,7 @@
       <c r="J158" s="12"/>
       <c r="K158" s="21"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="34">
         <f t="shared" si="2"/>
         <v>47300</v>
@@ -4774,7 +4779,7 @@
       <c r="J159" s="12"/>
       <c r="K159" s="21"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="34">
         <f t="shared" si="2"/>
         <v>47331</v>
@@ -4793,7 +4798,7 @@
       <c r="J160" s="12"/>
       <c r="K160" s="21"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="34">
         <f t="shared" si="2"/>
         <v>47362</v>
@@ -4812,7 +4817,7 @@
       <c r="J161" s="12"/>
       <c r="K161" s="21"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="34">
         <f t="shared" si="2"/>
         <v>47392</v>
@@ -4831,7 +4836,7 @@
       <c r="J162" s="12"/>
       <c r="K162" s="21"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="34">
         <f t="shared" si="2"/>
         <v>47423</v>
@@ -4850,7 +4855,7 @@
       <c r="J163" s="12"/>
       <c r="K163" s="21"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="34">
         <f t="shared" si="2"/>
         <v>47453</v>
@@ -4869,7 +4874,7 @@
       <c r="J164" s="12"/>
       <c r="K164" s="21"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="34">
         <f t="shared" si="2"/>
         <v>47484</v>
@@ -4888,7 +4893,7 @@
       <c r="J165" s="12"/>
       <c r="K165" s="21"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="34">
         <f t="shared" si="2"/>
         <v>47515</v>
@@ -4907,7 +4912,7 @@
       <c r="J166" s="12"/>
       <c r="K166" s="21"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="34">
         <f t="shared" si="2"/>
         <v>47543</v>
@@ -4926,7 +4931,7 @@
       <c r="J167" s="12"/>
       <c r="K167" s="21"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="34">
         <f t="shared" si="2"/>
         <v>47574</v>
@@ -4945,7 +4950,7 @@
       <c r="J168" s="12"/>
       <c r="K168" s="21"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="34">
         <f t="shared" si="2"/>
         <v>47604</v>
@@ -4964,7 +4969,7 @@
       <c r="J169" s="12"/>
       <c r="K169" s="21"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="34">
         <f t="shared" si="2"/>
         <v>47635</v>
@@ -4983,7 +4988,7 @@
       <c r="J170" s="12"/>
       <c r="K170" s="21"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="34">
         <f t="shared" si="2"/>
         <v>47665</v>
@@ -5002,7 +5007,7 @@
       <c r="J171" s="12"/>
       <c r="K171" s="21"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="34">
         <f t="shared" si="2"/>
         <v>47696</v>
@@ -5021,7 +5026,7 @@
       <c r="J172" s="12"/>
       <c r="K172" s="21"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="34">
         <f t="shared" si="2"/>
         <v>47727</v>
@@ -5040,7 +5045,7 @@
       <c r="J173" s="12"/>
       <c r="K173" s="21"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="34">
         <f t="shared" si="2"/>
         <v>47757</v>
@@ -5059,7 +5064,7 @@
       <c r="J174" s="12"/>
       <c r="K174" s="21"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="34">
         <f t="shared" si="2"/>
         <v>47788</v>
@@ -5078,7 +5083,7 @@
       <c r="J175" s="12"/>
       <c r="K175" s="21"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="34">
         <f t="shared" si="2"/>
         <v>47818</v>
@@ -5097,7 +5102,7 @@
       <c r="J176" s="12"/>
       <c r="K176" s="21"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="34">
         <f t="shared" si="2"/>
         <v>47849</v>
@@ -5116,7 +5121,7 @@
       <c r="J177" s="12"/>
       <c r="K177" s="21"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="34">
         <f t="shared" si="2"/>
         <v>47880</v>
@@ -5135,7 +5140,7 @@
       <c r="J178" s="12"/>
       <c r="K178" s="21"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="34">
         <f t="shared" si="2"/>
         <v>47908</v>
@@ -5154,7 +5159,7 @@
       <c r="J179" s="12"/>
       <c r="K179" s="21"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="34">
         <f t="shared" si="2"/>
         <v>47939</v>
@@ -5173,7 +5178,7 @@
       <c r="J180" s="12"/>
       <c r="K180" s="21"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="34">
         <f t="shared" si="2"/>
         <v>47969</v>
@@ -5192,7 +5197,7 @@
       <c r="J181" s="12"/>
       <c r="K181" s="21"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="34">
         <f t="shared" si="2"/>
         <v>48000</v>
@@ -5211,7 +5216,7 @@
       <c r="J182" s="12"/>
       <c r="K182" s="21"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="34">
         <f t="shared" si="2"/>
         <v>48030</v>
@@ -5230,7 +5235,7 @@
       <c r="J183" s="12"/>
       <c r="K183" s="21"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="34">
         <f t="shared" si="2"/>
         <v>48061</v>
@@ -5249,7 +5254,7 @@
       <c r="J184" s="12"/>
       <c r="K184" s="21"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="34">
         <f t="shared" si="2"/>
         <v>48092</v>
@@ -5268,7 +5273,7 @@
       <c r="J185" s="12"/>
       <c r="K185" s="21"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="34">
         <f t="shared" si="2"/>
         <v>48122</v>
@@ -5287,7 +5292,7 @@
       <c r="J186" s="12"/>
       <c r="K186" s="21"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="34">
         <f t="shared" si="2"/>
         <v>48153</v>
@@ -5306,7 +5311,7 @@
       <c r="J187" s="12"/>
       <c r="K187" s="21"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="34">
         <f t="shared" si="2"/>
         <v>48183</v>
@@ -5325,7 +5330,7 @@
       <c r="J188" s="12"/>
       <c r="K188" s="21"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="34">
         <f t="shared" si="2"/>
         <v>48214</v>
@@ -5344,7 +5349,7 @@
       <c r="J189" s="12"/>
       <c r="K189" s="21"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="34">
         <f t="shared" si="2"/>
         <v>48245</v>
@@ -5363,7 +5368,7 @@
       <c r="J190" s="12"/>
       <c r="K190" s="21"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="34">
         <f t="shared" si="2"/>
         <v>48274</v>
@@ -5397,10 +5402,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5424,34 +5429,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2275C647-3814-4C5F-83D0-CCA0AED2537E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K156"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3864" topLeftCell="A130" activePane="bottomLeft"/>
+      <pane ySplit="3870" topLeftCell="A130" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -5474,7 +5479,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -5498,7 +5503,7 @@
       </c>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -5520,7 +5525,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -5528,7 +5533,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="33"/>
@@ -5541,7 +5546,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="53" t="s">
@@ -5558,7 +5563,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5593,7 +5598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -5617,7 +5622,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>54</v>
       </c>
@@ -5639,7 +5644,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>41913</v>
       </c>
@@ -5659,7 +5664,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <f>EDATE(A11,1)</f>
         <v>41944</v>
@@ -5680,7 +5685,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <f t="shared" ref="A13:A64" si="0">EDATE(A12,1)</f>
         <v>41974</v>
@@ -5701,7 +5706,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>55</v>
       </c>
@@ -5719,7 +5724,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <f>EDATE(A13,1)</f>
         <v>42005</v>
@@ -5740,7 +5745,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <f t="shared" si="0"/>
         <v>42036</v>
@@ -5761,7 +5766,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <f t="shared" si="0"/>
         <v>42064</v>
@@ -5782,7 +5787,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <f t="shared" si="0"/>
         <v>42095</v>
@@ -5807,7 +5812,7 @@
         <v>42101</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <f t="shared" si="0"/>
         <v>42125</v>
@@ -5828,7 +5833,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <f t="shared" si="0"/>
         <v>42156</v>
@@ -5855,7 +5860,7 @@
         <v>42158</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <f t="shared" si="0"/>
         <v>42186</v>
@@ -5882,7 +5887,7 @@
         <v>42200</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <f t="shared" si="0"/>
         <v>42217</v>
@@ -5909,7 +5914,7 @@
         <v>42222</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <f t="shared" si="0"/>
         <v>42248</v>
@@ -5936,7 +5941,7 @@
         <v>42275</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <f t="shared" si="0"/>
         <v>42278</v>
@@ -5963,7 +5968,7 @@
         <v>42299</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <f t="shared" si="0"/>
         <v>42309</v>
@@ -5990,7 +5995,7 @@
         <v>42313</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="12" t="s">
         <v>35</v>
@@ -6010,7 +6015,7 @@
         <v>42325</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <f>EDATE(A25,1)</f>
         <v>42339</v>
@@ -6037,7 +6042,7 @@
         <v>42356</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>56</v>
       </c>
@@ -6055,7 +6060,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <f>EDATE(A27,1)</f>
         <v>42370</v>
@@ -6080,7 +6085,7 @@
         <v>42374</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <f t="shared" si="0"/>
         <v>42401</v>
@@ -6105,7 +6110,7 @@
         <v>42419</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="12" t="s">
         <v>35</v>
@@ -6125,7 +6130,7 @@
         <v>42424</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
       <c r="B32" s="12" t="s">
         <v>59</v>
@@ -6147,7 +6152,7 @@
         <v>42422</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="12" t="s">
         <v>59</v>
@@ -6169,7 +6174,7 @@
         <v>42426</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <f>EDATE(A30,1)</f>
         <v>42430</v>
@@ -6196,7 +6201,7 @@
         <v>42440</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="12" t="s">
         <v>58</v>
@@ -6218,7 +6223,7 @@
         <v>42458</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="12" t="s">
         <v>60</v>
@@ -6240,7 +6245,7 @@
         <v>42486</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <f>EDATE(A34,1)</f>
         <v>42461</v>
@@ -6267,7 +6272,7 @@
         <v>42508</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <f t="shared" si="0"/>
         <v>42491</v>
@@ -6290,7 +6295,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="39"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <f t="shared" si="0"/>
         <v>42522</v>
@@ -6315,7 +6320,7 @@
         <v>42524</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <f t="shared" si="0"/>
         <v>42552</v>
@@ -6336,7 +6341,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <f t="shared" si="0"/>
         <v>42583</v>
@@ -6363,7 +6368,7 @@
         <v>42591</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <f t="shared" si="0"/>
         <v>42614</v>
@@ -6388,7 +6393,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <f t="shared" si="0"/>
         <v>42644</v>
@@ -6415,7 +6420,7 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <f>EDATE(A43,1)</f>
         <v>42675</v>
@@ -6442,7 +6447,7 @@
         <v>42670</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="12" t="s">
         <v>62</v>
@@ -6464,7 +6469,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <f>EDATE(A44,1)</f>
         <v>42705</v>
@@ -6491,7 +6496,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="21" t="s">
         <v>66</v>
@@ -6511,7 +6516,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>57</v>
       </c>
@@ -6529,7 +6534,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <f>EDATE(A46,1)</f>
         <v>42736</v>
@@ -6554,7 +6559,7 @@
         <v>42790</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="12" t="s">
         <v>59</v>
@@ -6576,7 +6581,7 @@
         <v>42788</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <f>EDATE(A49,1)</f>
         <v>42767</v>
@@ -6597,7 +6602,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <f t="shared" si="0"/>
         <v>42795</v>
@@ -6624,7 +6629,7 @@
         <v>42808</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="12" t="s">
         <v>60</v>
@@ -6646,7 +6651,7 @@
         <v>42823</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="12" t="s">
         <v>59</v>
@@ -6668,7 +6673,7 @@
         <v>42821</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <f>EDATE(A52,1)</f>
         <v>42826</v>
@@ -6695,7 +6700,7 @@
         <v>42850</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <f t="shared" si="0"/>
         <v>42856</v>
@@ -6722,7 +6727,7 @@
         <v>42874</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <f>EDATE(A56,1)</f>
         <v>42887</v>
@@ -6749,7 +6754,7 @@
         <v>42922</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="12" t="s">
         <v>60</v>
@@ -6771,7 +6776,7 @@
         <v>42937</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <f>EDATE(A57,1)</f>
         <v>42917</v>
@@ -6792,7 +6797,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <f t="shared" si="0"/>
         <v>42948</v>
@@ -6819,7 +6824,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="12" t="s">
         <v>59</v>
@@ -6841,7 +6846,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <f>EDATE(A60,1)</f>
         <v>42979</v>
@@ -6868,7 +6873,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <f t="shared" si="0"/>
         <v>43009</v>
@@ -6889,7 +6894,7 @@
       <c r="J63" s="13"/>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <f t="shared" si="0"/>
         <v>43040</v>
@@ -6914,7 +6919,7 @@
         <v>43059</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <f>EDATE(A64,1)</f>
         <v>43070</v>
@@ -6941,7 +6946,7 @@
         <v>43070</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="13" t="s">
         <v>59</v>
@@ -6963,7 +6968,7 @@
         <v>43097</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
       <c r="B67" s="13" t="s">
         <v>59</v>
@@ -6985,7 +6990,7 @@
         <v>43062</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
       <c r="B68" s="13" t="s">
         <v>60</v>
@@ -7007,7 +7012,7 @@
         <v>43091</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
         <v>28</v>
       </c>
@@ -7025,7 +7030,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>43101</v>
       </c>
@@ -7049,7 +7054,7 @@
         <v>43119</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>43132</v>
       </c>
@@ -7073,7 +7078,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
       <c r="B72" s="13" t="s">
         <v>59</v>
@@ -7095,7 +7100,7 @@
         <v>43153</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>43160</v>
       </c>
@@ -7117,7 +7122,7 @@
         <v>43185</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
         <v>43191</v>
       </c>
@@ -7139,7 +7144,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="24"/>
       <c r="B75" s="12" t="s">
         <v>59</v>
@@ -7161,7 +7166,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
         <v>43221</v>
       </c>
@@ -7185,7 +7190,7 @@
         <v>43228</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="24"/>
       <c r="B77" s="12" t="s">
         <v>59</v>
@@ -7207,7 +7212,7 @@
         <v>43222</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="31"/>
       <c r="B78" s="12" t="s">
         <v>73</v>
@@ -7227,7 +7232,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
         <v>43252</v>
       </c>
@@ -7251,7 +7256,7 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="34"/>
       <c r="B80" s="21" t="s">
         <v>59</v>
@@ -7273,7 +7278,7 @@
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="34"/>
       <c r="B81" s="21" t="s">
         <v>74</v>
@@ -7293,7 +7298,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="39"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="34">
         <v>43313</v>
       </c>
@@ -7317,7 +7322,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="34">
         <v>43344</v>
       </c>
@@ -7339,7 +7344,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="39"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="34">
         <v>43374</v>
       </c>
@@ -7363,7 +7368,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="34"/>
       <c r="B85" s="21" t="s">
         <v>77</v>
@@ -7383,7 +7388,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="34">
         <v>43405</v>
       </c>
@@ -7407,7 +7412,7 @@
         <v>43420</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="34"/>
       <c r="B87" s="21" t="s">
         <v>76</v>
@@ -7427,7 +7432,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="34">
         <v>43435</v>
       </c>
@@ -7449,7 +7454,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="34"/>
       <c r="B89" s="21" t="s">
         <v>78</v>
@@ -7469,7 +7474,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="31" t="s">
         <v>30</v>
       </c>
@@ -7487,7 +7492,7 @@
       <c r="J90" s="13"/>
       <c r="K90" s="16"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="34">
         <v>43497</v>
       </c>
@@ -7509,7 +7514,7 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="34"/>
       <c r="B92" s="21" t="s">
         <v>59</v>
@@ -7531,7 +7536,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="34">
         <v>43525</v>
       </c>
@@ -7553,7 +7558,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="34">
         <v>43556</v>
       </c>
@@ -7577,7 +7582,7 @@
         <v>43566</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="34"/>
       <c r="B95" s="21" t="s">
         <v>59</v>
@@ -7599,7 +7604,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="34">
         <v>43586</v>
       </c>
@@ -7619,7 +7624,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="34">
         <v>43647</v>
       </c>
@@ -7643,7 +7648,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="34">
         <v>43678</v>
       </c>
@@ -7667,7 +7672,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="34"/>
       <c r="B99" s="21" t="s">
         <v>62</v>
@@ -7689,7 +7694,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="34"/>
       <c r="B100" s="21" t="s">
         <v>60</v>
@@ -7711,7 +7716,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="34">
         <v>43709</v>
       </c>
@@ -7735,7 +7740,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="34">
         <v>43739</v>
       </c>
@@ -7759,7 +7764,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="34"/>
       <c r="B103" s="21" t="s">
         <v>60</v>
@@ -7781,7 +7786,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="34">
         <v>43800</v>
       </c>
@@ -7805,7 +7810,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="34"/>
       <c r="B105" s="21" t="s">
         <v>59</v>
@@ -7825,7 +7830,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
         <v>31</v>
       </c>
@@ -7843,7 +7848,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="34">
         <v>43831</v>
       </c>
@@ -7865,7 +7870,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="34"/>
       <c r="B108" s="21" t="s">
         <v>59</v>
@@ -7887,7 +7892,7 @@
         <v>43848</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="34"/>
       <c r="B109" s="21" t="s">
         <v>83</v>
@@ -7907,7 +7912,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="34">
         <v>43862</v>
       </c>
@@ -7929,7 +7934,7 @@
         <v>43882</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="34">
         <v>43891</v>
       </c>
@@ -7951,7 +7956,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="34">
         <v>44013</v>
       </c>
@@ -7973,7 +7978,7 @@
         <v>44028</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="34"/>
       <c r="B113" s="21" t="s">
         <v>60</v>
@@ -7995,7 +8000,7 @@
         <v>44026</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="34"/>
       <c r="B114" s="21" t="s">
         <v>60</v>
@@ -8015,7 +8020,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="34">
         <v>44044</v>
       </c>
@@ -8039,7 +8044,7 @@
         <v>44059</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="34"/>
       <c r="B116" s="21" t="s">
         <v>59</v>
@@ -8061,7 +8066,7 @@
         <v>44063</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="34">
         <v>44075</v>
       </c>
@@ -8085,7 +8090,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="34"/>
       <c r="B118" s="21" t="s">
         <v>59</v>
@@ -8107,7 +8112,7 @@
         <v>44090</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="34"/>
       <c r="B119" s="21" t="s">
         <v>60</v>
@@ -8129,7 +8134,7 @@
         <v>44090</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="34"/>
       <c r="B120" s="21" t="s">
         <v>59</v>
@@ -8151,7 +8156,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="34">
         <v>44136</v>
       </c>
@@ -8173,7 +8178,7 @@
         <v>44152</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="34"/>
       <c r="B122" s="21" t="s">
         <v>59</v>
@@ -8195,7 +8200,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="31" t="s">
         <v>32</v>
       </c>
@@ -8213,7 +8218,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="34">
         <v>44197</v>
       </c>
@@ -8237,7 +8242,7 @@
         <v>44204</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="52"/>
       <c r="B125" s="16" t="s">
         <v>59</v>
@@ -8259,7 +8264,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="34">
         <v>44287</v>
       </c>
@@ -8281,7 +8286,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="34">
         <v>44317</v>
       </c>
@@ -8305,7 +8310,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="34">
         <v>44348</v>
       </c>
@@ -8329,7 +8334,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="34">
         <v>44378</v>
       </c>
@@ -8353,7 +8358,7 @@
         <v>44393</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="34">
         <v>44409</v>
       </c>
@@ -8377,7 +8382,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="34">
         <v>44470</v>
       </c>
@@ -8401,7 +8406,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="34"/>
       <c r="B132" s="21" t="s">
         <v>58</v>
@@ -8423,7 +8428,7 @@
         <v>44517</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="34">
         <v>44501</v>
       </c>
@@ -8447,7 +8452,7 @@
         <v>44525</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="31" t="s">
         <v>33</v>
       </c>
@@ -8465,7 +8470,7 @@
       <c r="J134" s="12"/>
       <c r="K134" s="21"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="34">
         <v>44593</v>
       </c>
@@ -8487,7 +8492,7 @@
         <v>44600</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="34"/>
       <c r="B136" s="21" t="s">
         <v>58</v>
@@ -8509,7 +8514,7 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="34"/>
       <c r="B137" s="21" t="s">
         <v>88</v>
@@ -8531,7 +8536,7 @@
         <v>44771</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="34"/>
       <c r="B138" s="21" t="s">
         <v>88</v>
@@ -8553,7 +8558,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="34"/>
       <c r="B139" s="21" t="s">
         <v>89</v>
@@ -8575,7 +8580,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="34"/>
       <c r="B140" s="21" t="s">
         <v>71</v>
@@ -8595,7 +8600,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="34"/>
       <c r="B141" s="21"/>
       <c r="C141" s="14"/>
@@ -8611,7 +8616,7 @@
       <c r="J141" s="12"/>
       <c r="K141" s="21"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="34"/>
       <c r="B142" s="21"/>
       <c r="C142" s="14"/>
@@ -8627,7 +8632,7 @@
       <c r="J142" s="12"/>
       <c r="K142" s="21"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="34"/>
       <c r="B143" s="21"/>
       <c r="C143" s="14"/>
@@ -8643,7 +8648,7 @@
       <c r="J143" s="12"/>
       <c r="K143" s="21"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="34"/>
       <c r="B144" s="21"/>
       <c r="C144" s="14"/>
@@ -8659,7 +8664,7 @@
       <c r="J144" s="12"/>
       <c r="K144" s="21"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="34"/>
       <c r="B145" s="21"/>
       <c r="C145" s="14"/>
@@ -8675,7 +8680,7 @@
       <c r="J145" s="12"/>
       <c r="K145" s="21"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="34"/>
       <c r="B146" s="21"/>
       <c r="C146" s="14"/>
@@ -8691,7 +8696,7 @@
       <c r="J146" s="12"/>
       <c r="K146" s="21"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="34"/>
       <c r="B147" s="21"/>
       <c r="C147" s="14"/>
@@ -8707,7 +8712,7 @@
       <c r="J147" s="12"/>
       <c r="K147" s="21"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="34"/>
       <c r="B148" s="21"/>
       <c r="C148" s="14"/>
@@ -8723,7 +8728,7 @@
       <c r="J148" s="12"/>
       <c r="K148" s="21"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="34"/>
       <c r="B149" s="21"/>
       <c r="C149" s="14"/>
@@ -8739,7 +8744,7 @@
       <c r="J149" s="12"/>
       <c r="K149" s="21"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="34"/>
       <c r="B150" s="21"/>
       <c r="C150" s="14"/>
@@ -8755,7 +8760,7 @@
       <c r="J150" s="12"/>
       <c r="K150" s="21"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="34"/>
       <c r="B151" s="21"/>
       <c r="C151" s="14"/>
@@ -8771,7 +8776,7 @@
       <c r="J151" s="12"/>
       <c r="K151" s="21"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="34"/>
       <c r="B152" s="21"/>
       <c r="C152" s="14"/>
@@ -8787,7 +8792,7 @@
       <c r="J152" s="12"/>
       <c r="K152" s="21"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="34"/>
       <c r="B153" s="21"/>
       <c r="C153" s="14"/>
@@ -8803,7 +8808,7 @@
       <c r="J153" s="12"/>
       <c r="K153" s="21"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="34"/>
       <c r="B154" s="21"/>
       <c r="C154" s="14"/>
@@ -8819,7 +8824,7 @@
       <c r="J154" s="12"/>
       <c r="K154" s="21"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="34"/>
       <c r="B155" s="21"/>
       <c r="C155" s="14"/>
@@ -8835,7 +8840,7 @@
       <c r="J155" s="12"/>
       <c r="K155" s="21"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="52"/>
       <c r="B156" s="16"/>
       <c r="C156" s="36"/>
@@ -8853,23 +8858,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{81D96A05-FF04-45D4-9C46-B0B2AA4E8856}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{02E90906-B0D2-4F87-8CD8-B60B94688777}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8893,28 +8898,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88F4348-6ECE-40F6-BD6F-F8629268615A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="44" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="44" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>44</v>
       </c>
@@ -8927,7 +8932,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>36</v>
       </c>
@@ -8956,7 +8961,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="D3" s="12"/>
@@ -8980,17 +8985,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="42"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="43" t="s">
         <v>40</v>
       </c>
@@ -9011,7 +9016,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="44">
         <v>1</v>
       </c>
@@ -9038,7 +9043,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="44">
         <v>2</v>
       </c>
@@ -9064,7 +9069,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="44">
         <v>3</v>
       </c>
@@ -9090,7 +9095,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="44">
         <v>4</v>
       </c>
@@ -9116,7 +9121,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="44">
         <v>5</v>
       </c>
@@ -9142,7 +9147,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="44">
         <v>6</v>
       </c>
@@ -9168,7 +9173,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="44">
         <v>7</v>
       </c>
@@ -9194,7 +9199,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="44">
         <v>8</v>
       </c>
@@ -9220,7 +9225,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="44">
         <v>9</v>
       </c>
@@ -9240,7 +9245,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="44">
         <v>10</v>
       </c>
@@ -9260,7 +9265,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="44">
         <v>11</v>
       </c>
@@ -9280,7 +9285,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="44">
         <v>12</v>
       </c>
@@ -9301,7 +9306,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="44">
         <v>13</v>
       </c>
@@ -9322,7 +9327,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="44">
         <v>14</v>
       </c>
@@ -9343,7 +9348,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="44">
         <v>15</v>
       </c>
@@ -9364,7 +9369,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="44">
         <v>16</v>
       </c>
@@ -9385,7 +9390,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="44">
         <v>17</v>
       </c>
@@ -9406,7 +9411,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="44">
         <v>18</v>
       </c>
@@ -9427,7 +9432,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="44">
         <v>19</v>
       </c>
@@ -9448,7 +9453,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="44">
         <v>20</v>
       </c>
@@ -9469,7 +9474,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="44">
         <v>21</v>
       </c>
@@ -9490,7 +9495,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="44">
         <v>22</v>
       </c>
@@ -9511,7 +9516,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="44">
         <v>23</v>
       </c>
@@ -9532,7 +9537,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="44">
         <v>24</v>
       </c>
@@ -9553,7 +9558,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="44">
         <v>25</v>
       </c>
@@ -9574,7 +9579,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="44">
         <v>26</v>
       </c>
@@ -9595,7 +9600,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="44">
         <v>27</v>
       </c>
@@ -9616,7 +9621,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="44">
         <v>28</v>
       </c>
@@ -9637,7 +9642,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="44">
         <v>29</v>
       </c>
@@ -9658,7 +9663,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="44">
         <v>30</v>
       </c>
@@ -9679,7 +9684,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="44">
         <v>31</v>
       </c>
@@ -9700,7 +9705,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="44">
         <v>32</v>
       </c>
@@ -9709,7 +9714,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="44">
         <v>33</v>
       </c>
@@ -9718,7 +9723,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="44">
         <v>34</v>
       </c>
@@ -9727,7 +9732,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="44">
         <v>35</v>
       </c>
@@ -9736,7 +9741,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="44">
         <v>36</v>
       </c>
@@ -9745,7 +9750,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="44">
         <v>37</v>
       </c>
@@ -9754,7 +9759,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="44">
         <v>38</v>
       </c>
@@ -9763,7 +9768,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="44">
         <v>39</v>
       </c>
@@ -9772,7 +9777,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="44">
         <v>40</v>
       </c>
@@ -9781,7 +9786,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="44">
         <v>41</v>
       </c>
@@ -9790,7 +9795,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="44">
         <v>42</v>
       </c>
@@ -9799,7 +9804,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="44">
         <v>43</v>
       </c>
@@ -9808,7 +9813,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="44">
         <v>44</v>
       </c>
@@ -9817,7 +9822,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="44">
         <v>45</v>
       </c>
@@ -9826,7 +9831,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="44">
         <v>46</v>
       </c>
@@ -9835,7 +9840,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="44">
         <v>47</v>
       </c>
@@ -9844,7 +9849,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="44">
         <v>48</v>
       </c>
@@ -9853,7 +9858,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="44">
         <v>49</v>
       </c>
@@ -9862,7 +9867,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="44">
         <v>50</v>
       </c>
@@ -9871,7 +9876,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="44">
         <v>51</v>
       </c>
@@ -9880,7 +9885,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="44">
         <v>52</v>
       </c>
@@ -9889,7 +9894,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="44">
         <v>53</v>
       </c>
@@ -9898,7 +9903,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="44">
         <v>54</v>
       </c>
@@ -9907,7 +9912,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="44">
         <v>55</v>
       </c>
@@ -9916,7 +9921,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="44">
         <v>56</v>
       </c>
@@ -9925,7 +9930,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="44">
         <v>57</v>
       </c>
@@ -9934,7 +9939,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="44">
         <v>58</v>
       </c>
@@ -9943,7 +9948,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="44">
         <v>59</v>
       </c>
@@ -9952,7 +9957,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="44">
         <v>60</v>
       </c>
@@ -9961,7 +9966,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/TREASURY/ATIENZA, JULIE ANN ANCIANO.xlsx
+++ b/REGULAR/TREASURY/ATIENZA, JULIE ANN ANCIANO.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="95">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1601,8 +1601,8 @@
   <dimension ref="A2:K191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A75" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+      <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,7 +1771,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3378,9 +3378,13 @@
         <f t="shared" si="1"/>
         <v>45078</v>
       </c>
-      <c r="B86" s="21"/>
+      <c r="B86" s="21" t="s">
+        <v>60</v>
+      </c>
       <c r="C86" s="14"/>
-      <c r="D86" s="35"/>
+      <c r="D86" s="35">
+        <v>1</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="21"/>
       <c r="G86" s="14" t="str">
@@ -3390,7 +3394,9 @@
       <c r="H86" s="35"/>
       <c r="I86" s="9"/>
       <c r="J86" s="12"/>
-      <c r="K86" s="21"/>
+      <c r="K86" s="39">
+        <v>45097</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="34">

--- a/REGULAR/TREASURY/ATIENZA, JULIE ANN ANCIANO.xlsx
+++ b/REGULAR/TREASURY/ATIENZA, JULIE ANN ANCIANO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED7B101-2AE6-4CB6-814A-F492AEC8FFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="96">
   <si>
     <t>PERIOD</t>
   </si>
@@ -318,11 +319,14 @@
   <si>
     <t>4/19,25/2023</t>
   </si>
+  <si>
+    <t>6/27,30/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1239,25 +1243,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K191" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K191" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1269,25 +1273,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K156" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K156" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1594,33 +1598,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
+      <pane ySplit="3696" topLeftCell="A78" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="32" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1643,7 +1647,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1667,7 +1671,7 @@
       </c>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1689,7 +1693,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1697,7 +1701,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="33"/>
@@ -1710,7 +1714,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="53" t="s">
@@ -1727,7 +1731,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1762,7 +1766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1771,7 +1775,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>50</v>
+        <v>52.5</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1781,12 +1785,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>78</v>
+        <v>78.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>28</v>
       </c>
@@ -1808,7 +1812,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -1828,7 +1832,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -1848,7 +1852,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>43160</v>
       </c>
@@ -1868,7 +1872,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>43191</v>
       </c>
@@ -1888,7 +1892,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>43221</v>
       </c>
@@ -1908,7 +1912,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>43252</v>
       </c>
@@ -1928,7 +1932,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -1948,7 +1952,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>43313</v>
       </c>
@@ -1968,7 +1972,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>43344</v>
       </c>
@@ -1988,7 +1992,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>43374</v>
       </c>
@@ -2008,7 +2012,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>43405</v>
       </c>
@@ -2028,7 +2032,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>43435</v>
       </c>
@@ -2052,7 +2056,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
         <v>30</v>
       </c>
@@ -2070,7 +2074,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>43466</v>
       </c>
@@ -2090,7 +2094,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>43497</v>
       </c>
@@ -2110,7 +2114,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>43525</v>
       </c>
@@ -2130,7 +2134,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>43556</v>
       </c>
@@ -2150,7 +2154,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>43586</v>
       </c>
@@ -2170,7 +2174,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>43617</v>
       </c>
@@ -2190,7 +2194,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>43647</v>
       </c>
@@ -2210,7 +2214,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>43678</v>
       </c>
@@ -2230,7 +2234,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>43709</v>
       </c>
@@ -2250,7 +2254,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>43739</v>
       </c>
@@ -2270,7 +2274,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <v>43770</v>
       </c>
@@ -2290,7 +2294,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>43800</v>
       </c>
@@ -2314,7 +2318,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
         <v>31</v>
       </c>
@@ -2332,7 +2336,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>43831</v>
       </c>
@@ -2352,7 +2356,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>43862</v>
       </c>
@@ -2372,7 +2376,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>43891</v>
       </c>
@@ -2392,7 +2396,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>43922</v>
       </c>
@@ -2412,7 +2416,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>43952</v>
       </c>
@@ -2432,7 +2436,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>43983</v>
       </c>
@@ -2452,7 +2456,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>44013</v>
       </c>
@@ -2472,7 +2476,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>44044</v>
       </c>
@@ -2492,7 +2496,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <v>44075</v>
       </c>
@@ -2512,7 +2516,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>44105</v>
       </c>
@@ -2532,7 +2536,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>44136</v>
       </c>
@@ -2552,7 +2556,7 @@
       <c r="J47" s="13"/>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>44166</v>
       </c>
@@ -2576,7 +2580,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
         <v>32</v>
       </c>
@@ -2594,7 +2598,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <v>44197</v>
       </c>
@@ -2614,7 +2618,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>44228</v>
       </c>
@@ -2634,7 +2638,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>44256</v>
       </c>
@@ -2654,7 +2658,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>44287</v>
       </c>
@@ -2674,7 +2678,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>44317</v>
       </c>
@@ -2694,7 +2698,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>44348</v>
       </c>
@@ -2714,7 +2718,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>44378</v>
       </c>
@@ -2734,7 +2738,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>44409</v>
       </c>
@@ -2754,7 +2758,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>44440</v>
       </c>
@@ -2774,7 +2778,7 @@
       <c r="J58" s="13"/>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <v>44470</v>
       </c>
@@ -2794,7 +2798,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <v>44501</v>
       </c>
@@ -2814,7 +2818,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>44531</v>
       </c>
@@ -2838,7 +2842,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
         <v>33</v>
       </c>
@@ -2856,7 +2860,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <v>44562</v>
       </c>
@@ -2876,7 +2880,7 @@
       <c r="J63" s="13"/>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="34">
         <f>EDATE(A63,1)</f>
         <v>44593</v>
@@ -2897,7 +2901,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="34">
         <f>EDATE(A64,1)</f>
         <v>44621</v>
@@ -2918,7 +2922,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="34">
         <f t="shared" ref="A66:A72" si="0">EDATE(A65,1)</f>
         <v>44652</v>
@@ -2939,7 +2943,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="39"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="34">
         <f>EDATE(A66,1)</f>
         <v>44682</v>
@@ -2960,7 +2964,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="34">
         <f t="shared" si="0"/>
         <v>44713</v>
@@ -2981,7 +2985,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="34">
         <f t="shared" si="0"/>
         <v>44743</v>
@@ -3002,7 +3006,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="34">
         <f t="shared" si="0"/>
         <v>44774</v>
@@ -3023,7 +3027,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="34">
         <f t="shared" si="0"/>
         <v>44805</v>
@@ -3044,7 +3048,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="34">
         <f t="shared" si="0"/>
         <v>44835</v>
@@ -3071,7 +3075,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="34"/>
       <c r="B73" s="16" t="s">
         <v>58</v>
@@ -3093,7 +3097,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="34">
         <v>44866</v>
       </c>
@@ -3119,7 +3123,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="34"/>
       <c r="B75" s="16" t="s">
         <v>58</v>
@@ -3141,7 +3145,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="34">
         <v>44896</v>
       </c>
@@ -3167,7 +3171,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="34"/>
       <c r="B77" s="21" t="s">
         <v>58</v>
@@ -3189,7 +3193,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="31" t="s">
         <v>92</v>
       </c>
@@ -3207,7 +3211,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="34">
         <v>44927</v>
       </c>
@@ -3227,7 +3231,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="34">
         <f>EDATE(A79,1)</f>
         <v>44958</v>
@@ -3254,7 +3258,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="34"/>
       <c r="B81" s="21" t="s">
         <v>35</v>
@@ -3274,7 +3278,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="34"/>
       <c r="B82" s="21" t="s">
         <v>71</v>
@@ -3294,7 +3298,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="34">
         <f>EDATE(A80,1)</f>
         <v>44986</v>
@@ -3321,7 +3325,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="34">
         <f t="shared" ref="A84:A146" si="1">EDATE(A83,1)</f>
         <v>45017</v>
@@ -3348,7 +3352,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="34">
         <f t="shared" si="1"/>
         <v>45047</v>
@@ -3356,15 +3360,17 @@
       <c r="B85" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C85" s="14"/>
+      <c r="C85" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="35">
         <v>1</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="21"/>
-      <c r="G85" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="35"/>
       <c r="I85" s="9"/>
@@ -3373,7 +3379,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="34">
         <f t="shared" si="1"/>
         <v>45078</v>
@@ -3381,15 +3387,17 @@
       <c r="B86" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C86" s="14"/>
+      <c r="C86" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="35">
         <v>1</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="21"/>
-      <c r="G86" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="35"/>
       <c r="I86" s="9"/>
@@ -3398,12 +3406,14 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="34">
         <f t="shared" si="1"/>
         <v>45108</v>
       </c>
-      <c r="B87" s="21"/>
+      <c r="B87" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="C87" s="14"/>
       <c r="D87" s="35"/>
       <c r="E87" s="9"/>
@@ -3412,12 +3422,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H87" s="35"/>
+      <c r="H87" s="35">
+        <v>2</v>
+      </c>
       <c r="I87" s="9"/>
       <c r="J87" s="12"/>
-      <c r="K87" s="21"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K87" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="34">
         <f t="shared" si="1"/>
         <v>45139</v>
@@ -3436,7 +3450,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="34">
         <f t="shared" si="1"/>
         <v>45170</v>
@@ -3455,7 +3469,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="34">
         <f t="shared" si="1"/>
         <v>45200</v>
@@ -3474,7 +3488,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="34">
         <f t="shared" si="1"/>
         <v>45231</v>
@@ -3493,7 +3507,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="34">
         <f t="shared" si="1"/>
         <v>45261</v>
@@ -3512,7 +3526,7 @@
       <c r="J92" s="13"/>
       <c r="K92" s="16"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="34">
         <f t="shared" si="1"/>
         <v>45292</v>
@@ -3531,7 +3545,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="34">
         <f t="shared" si="1"/>
         <v>45323</v>
@@ -3550,7 +3564,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="34">
         <f t="shared" si="1"/>
         <v>45352</v>
@@ -3569,7 +3583,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="34">
         <f t="shared" si="1"/>
         <v>45383</v>
@@ -3588,7 +3602,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="34">
         <f t="shared" si="1"/>
         <v>45413</v>
@@ -3607,7 +3621,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="34">
         <f t="shared" si="1"/>
         <v>45444</v>
@@ -3626,7 +3640,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="34">
         <f t="shared" si="1"/>
         <v>45474</v>
@@ -3645,7 +3659,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="34">
         <f t="shared" si="1"/>
         <v>45505</v>
@@ -3664,7 +3678,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="34">
         <f t="shared" si="1"/>
         <v>45536</v>
@@ -3683,7 +3697,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="34">
         <f t="shared" si="1"/>
         <v>45566</v>
@@ -3702,7 +3716,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="34">
         <f t="shared" si="1"/>
         <v>45597</v>
@@ -3721,7 +3735,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="34">
         <f t="shared" si="1"/>
         <v>45627</v>
@@ -3740,7 +3754,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="34">
         <f t="shared" si="1"/>
         <v>45658</v>
@@ -3759,7 +3773,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="34">
         <f t="shared" si="1"/>
         <v>45689</v>
@@ -3778,7 +3792,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="34">
         <f t="shared" si="1"/>
         <v>45717</v>
@@ -3797,7 +3811,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="34">
         <f t="shared" si="1"/>
         <v>45748</v>
@@ -3816,7 +3830,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="34">
         <f t="shared" si="1"/>
         <v>45778</v>
@@ -3835,7 +3849,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="34">
         <f t="shared" si="1"/>
         <v>45809</v>
@@ -3854,7 +3868,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="34">
         <f t="shared" si="1"/>
         <v>45839</v>
@@ -3873,7 +3887,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="34">
         <f t="shared" si="1"/>
         <v>45870</v>
@@ -3892,7 +3906,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="34">
         <f t="shared" si="1"/>
         <v>45901</v>
@@ -3911,7 +3925,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="34">
         <f t="shared" si="1"/>
         <v>45931</v>
@@ -3930,7 +3944,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="34">
         <f t="shared" si="1"/>
         <v>45962</v>
@@ -3949,7 +3963,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="34">
         <f t="shared" si="1"/>
         <v>45992</v>
@@ -3968,7 +3982,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="34">
         <f t="shared" si="1"/>
         <v>46023</v>
@@ -3987,7 +4001,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="34">
         <f t="shared" si="1"/>
         <v>46054</v>
@@ -4006,7 +4020,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="34">
         <f t="shared" si="1"/>
         <v>46082</v>
@@ -4025,7 +4039,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="34">
         <f t="shared" si="1"/>
         <v>46113</v>
@@ -4044,7 +4058,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="34">
         <f t="shared" si="1"/>
         <v>46143</v>
@@ -4063,7 +4077,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="34">
         <f t="shared" si="1"/>
         <v>46174</v>
@@ -4082,7 +4096,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="34">
         <f t="shared" si="1"/>
         <v>46204</v>
@@ -4101,7 +4115,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="34">
         <f t="shared" si="1"/>
         <v>46235</v>
@@ -4120,7 +4134,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="34">
         <f t="shared" si="1"/>
         <v>46266</v>
@@ -4139,7 +4153,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="34">
         <f t="shared" si="1"/>
         <v>46296</v>
@@ -4158,7 +4172,7 @@
       <c r="J126" s="12"/>
       <c r="K126" s="21"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="34">
         <f t="shared" si="1"/>
         <v>46327</v>
@@ -4177,7 +4191,7 @@
       <c r="J127" s="12"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="34">
         <f t="shared" si="1"/>
         <v>46357</v>
@@ -4196,7 +4210,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="34">
         <f t="shared" si="1"/>
         <v>46388</v>
@@ -4215,7 +4229,7 @@
       <c r="J129" s="12"/>
       <c r="K129" s="21"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="34">
         <f t="shared" si="1"/>
         <v>46419</v>
@@ -4234,7 +4248,7 @@
       <c r="J130" s="12"/>
       <c r="K130" s="21"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="34">
         <f t="shared" si="1"/>
         <v>46447</v>
@@ -4253,7 +4267,7 @@
       <c r="J131" s="12"/>
       <c r="K131" s="21"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="34">
         <f t="shared" si="1"/>
         <v>46478</v>
@@ -4272,7 +4286,7 @@
       <c r="J132" s="12"/>
       <c r="K132" s="21"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="34">
         <f t="shared" si="1"/>
         <v>46508</v>
@@ -4291,7 +4305,7 @@
       <c r="J133" s="12"/>
       <c r="K133" s="21"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="34">
         <f t="shared" si="1"/>
         <v>46539</v>
@@ -4310,7 +4324,7 @@
       <c r="J134" s="12"/>
       <c r="K134" s="21"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="34">
         <f t="shared" si="1"/>
         <v>46569</v>
@@ -4329,7 +4343,7 @@
       <c r="J135" s="12"/>
       <c r="K135" s="21"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="34">
         <f t="shared" si="1"/>
         <v>46600</v>
@@ -4348,7 +4362,7 @@
       <c r="J136" s="12"/>
       <c r="K136" s="21"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="34">
         <f t="shared" si="1"/>
         <v>46631</v>
@@ -4367,7 +4381,7 @@
       <c r="J137" s="12"/>
       <c r="K137" s="21"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="34">
         <f t="shared" si="1"/>
         <v>46661</v>
@@ -4386,7 +4400,7 @@
       <c r="J138" s="12"/>
       <c r="K138" s="21"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="34">
         <f t="shared" si="1"/>
         <v>46692</v>
@@ -4405,7 +4419,7 @@
       <c r="J139" s="12"/>
       <c r="K139" s="21"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="34">
         <f t="shared" si="1"/>
         <v>46722</v>
@@ -4424,7 +4438,7 @@
       <c r="J140" s="12"/>
       <c r="K140" s="21"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="34">
         <f t="shared" si="1"/>
         <v>46753</v>
@@ -4443,7 +4457,7 @@
       <c r="J141" s="12"/>
       <c r="K141" s="21"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="34">
         <f t="shared" si="1"/>
         <v>46784</v>
@@ -4462,7 +4476,7 @@
       <c r="J142" s="12"/>
       <c r="K142" s="21"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="34">
         <f t="shared" si="1"/>
         <v>46813</v>
@@ -4481,7 +4495,7 @@
       <c r="J143" s="12"/>
       <c r="K143" s="21"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="34">
         <f t="shared" si="1"/>
         <v>46844</v>
@@ -4500,7 +4514,7 @@
       <c r="J144" s="12"/>
       <c r="K144" s="21"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="34">
         <f t="shared" si="1"/>
         <v>46874</v>
@@ -4519,7 +4533,7 @@
       <c r="J145" s="12"/>
       <c r="K145" s="21"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="34">
         <f t="shared" si="1"/>
         <v>46905</v>
@@ -4538,7 +4552,7 @@
       <c r="J146" s="12"/>
       <c r="K146" s="21"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="34">
         <f t="shared" ref="A147:A191" si="2">EDATE(A146,1)</f>
         <v>46935</v>
@@ -4557,7 +4571,7 @@
       <c r="J147" s="12"/>
       <c r="K147" s="21"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="34">
         <f t="shared" si="2"/>
         <v>46966</v>
@@ -4576,7 +4590,7 @@
       <c r="J148" s="12"/>
       <c r="K148" s="21"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="34">
         <f t="shared" si="2"/>
         <v>46997</v>
@@ -4595,7 +4609,7 @@
       <c r="J149" s="12"/>
       <c r="K149" s="21"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="34">
         <f t="shared" si="2"/>
         <v>47027</v>
@@ -4614,7 +4628,7 @@
       <c r="J150" s="12"/>
       <c r="K150" s="21"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="34">
         <f t="shared" si="2"/>
         <v>47058</v>
@@ -4633,7 +4647,7 @@
       <c r="J151" s="12"/>
       <c r="K151" s="21"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="34">
         <f t="shared" si="2"/>
         <v>47088</v>
@@ -4652,7 +4666,7 @@
       <c r="J152" s="12"/>
       <c r="K152" s="21"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="34">
         <f t="shared" si="2"/>
         <v>47119</v>
@@ -4671,7 +4685,7 @@
       <c r="J153" s="12"/>
       <c r="K153" s="21"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="34">
         <f t="shared" si="2"/>
         <v>47150</v>
@@ -4690,7 +4704,7 @@
       <c r="J154" s="12"/>
       <c r="K154" s="21"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="34">
         <f t="shared" si="2"/>
         <v>47178</v>
@@ -4709,7 +4723,7 @@
       <c r="J155" s="12"/>
       <c r="K155" s="21"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="34">
         <f t="shared" si="2"/>
         <v>47209</v>
@@ -4728,7 +4742,7 @@
       <c r="J156" s="12"/>
       <c r="K156" s="21"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="34">
         <f t="shared" si="2"/>
         <v>47239</v>
@@ -4747,7 +4761,7 @@
       <c r="J157" s="12"/>
       <c r="K157" s="21"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="34">
         <f t="shared" si="2"/>
         <v>47270</v>
@@ -4766,7 +4780,7 @@
       <c r="J158" s="12"/>
       <c r="K158" s="21"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="34">
         <f t="shared" si="2"/>
         <v>47300</v>
@@ -4785,7 +4799,7 @@
       <c r="J159" s="12"/>
       <c r="K159" s="21"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="34">
         <f t="shared" si="2"/>
         <v>47331</v>
@@ -4804,7 +4818,7 @@
       <c r="J160" s="12"/>
       <c r="K160" s="21"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="34">
         <f t="shared" si="2"/>
         <v>47362</v>
@@ -4823,7 +4837,7 @@
       <c r="J161" s="12"/>
       <c r="K161" s="21"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="34">
         <f t="shared" si="2"/>
         <v>47392</v>
@@ -4842,7 +4856,7 @@
       <c r="J162" s="12"/>
       <c r="K162" s="21"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="34">
         <f t="shared" si="2"/>
         <v>47423</v>
@@ -4861,7 +4875,7 @@
       <c r="J163" s="12"/>
       <c r="K163" s="21"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="34">
         <f t="shared" si="2"/>
         <v>47453</v>
@@ -4880,7 +4894,7 @@
       <c r="J164" s="12"/>
       <c r="K164" s="21"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="34">
         <f t="shared" si="2"/>
         <v>47484</v>
@@ -4899,7 +4913,7 @@
       <c r="J165" s="12"/>
       <c r="K165" s="21"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="34">
         <f t="shared" si="2"/>
         <v>47515</v>
@@ -4918,7 +4932,7 @@
       <c r="J166" s="12"/>
       <c r="K166" s="21"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="34">
         <f t="shared" si="2"/>
         <v>47543</v>
@@ -4937,7 +4951,7 @@
       <c r="J167" s="12"/>
       <c r="K167" s="21"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="34">
         <f t="shared" si="2"/>
         <v>47574</v>
@@ -4956,7 +4970,7 @@
       <c r="J168" s="12"/>
       <c r="K168" s="21"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="34">
         <f t="shared" si="2"/>
         <v>47604</v>
@@ -4975,7 +4989,7 @@
       <c r="J169" s="12"/>
       <c r="K169" s="21"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="34">
         <f t="shared" si="2"/>
         <v>47635</v>
@@ -4994,7 +5008,7 @@
       <c r="J170" s="12"/>
       <c r="K170" s="21"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="34">
         <f t="shared" si="2"/>
         <v>47665</v>
@@ -5013,7 +5027,7 @@
       <c r="J171" s="12"/>
       <c r="K171" s="21"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="34">
         <f t="shared" si="2"/>
         <v>47696</v>
@@ -5032,7 +5046,7 @@
       <c r="J172" s="12"/>
       <c r="K172" s="21"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="34">
         <f t="shared" si="2"/>
         <v>47727</v>
@@ -5051,7 +5065,7 @@
       <c r="J173" s="12"/>
       <c r="K173" s="21"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="34">
         <f t="shared" si="2"/>
         <v>47757</v>
@@ -5070,7 +5084,7 @@
       <c r="J174" s="12"/>
       <c r="K174" s="21"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="34">
         <f t="shared" si="2"/>
         <v>47788</v>
@@ -5089,7 +5103,7 @@
       <c r="J175" s="12"/>
       <c r="K175" s="21"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="34">
         <f t="shared" si="2"/>
         <v>47818</v>
@@ -5108,7 +5122,7 @@
       <c r="J176" s="12"/>
       <c r="K176" s="21"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="34">
         <f t="shared" si="2"/>
         <v>47849</v>
@@ -5127,7 +5141,7 @@
       <c r="J177" s="12"/>
       <c r="K177" s="21"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="34">
         <f t="shared" si="2"/>
         <v>47880</v>
@@ -5146,7 +5160,7 @@
       <c r="J178" s="12"/>
       <c r="K178" s="21"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="34">
         <f t="shared" si="2"/>
         <v>47908</v>
@@ -5165,7 +5179,7 @@
       <c r="J179" s="12"/>
       <c r="K179" s="21"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="34">
         <f t="shared" si="2"/>
         <v>47939</v>
@@ -5184,7 +5198,7 @@
       <c r="J180" s="12"/>
       <c r="K180" s="21"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="34">
         <f t="shared" si="2"/>
         <v>47969</v>
@@ -5203,7 +5217,7 @@
       <c r="J181" s="12"/>
       <c r="K181" s="21"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="34">
         <f t="shared" si="2"/>
         <v>48000</v>
@@ -5222,7 +5236,7 @@
       <c r="J182" s="12"/>
       <c r="K182" s="21"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="34">
         <f t="shared" si="2"/>
         <v>48030</v>
@@ -5241,7 +5255,7 @@
       <c r="J183" s="12"/>
       <c r="K183" s="21"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="34">
         <f t="shared" si="2"/>
         <v>48061</v>
@@ -5260,7 +5274,7 @@
       <c r="J184" s="12"/>
       <c r="K184" s="21"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="34">
         <f t="shared" si="2"/>
         <v>48092</v>
@@ -5279,7 +5293,7 @@
       <c r="J185" s="12"/>
       <c r="K185" s="21"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="34">
         <f t="shared" si="2"/>
         <v>48122</v>
@@ -5298,7 +5312,7 @@
       <c r="J186" s="12"/>
       <c r="K186" s="21"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="34">
         <f t="shared" si="2"/>
         <v>48153</v>
@@ -5317,7 +5331,7 @@
       <c r="J187" s="12"/>
       <c r="K187" s="21"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="34">
         <f t="shared" si="2"/>
         <v>48183</v>
@@ -5336,7 +5350,7 @@
       <c r="J188" s="12"/>
       <c r="K188" s="21"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="34">
         <f t="shared" si="2"/>
         <v>48214</v>
@@ -5355,7 +5369,7 @@
       <c r="J189" s="12"/>
       <c r="K189" s="21"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="34">
         <f t="shared" si="2"/>
         <v>48245</v>
@@ -5374,7 +5388,7 @@
       <c r="J190" s="12"/>
       <c r="K190" s="21"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="34">
         <f t="shared" si="2"/>
         <v>48274</v>
@@ -5408,10 +5422,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5435,34 +5449,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K156"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3870" topLeftCell="A130" activePane="bottomLeft"/>
+      <pane ySplit="3876" topLeftCell="A130" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="32" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -5485,7 +5499,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -5509,7 +5523,7 @@
       </c>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -5531,7 +5545,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -5539,7 +5553,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="33"/>
@@ -5552,7 +5566,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="53" t="s">
@@ -5569,7 +5583,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5604,7 +5618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -5628,7 +5642,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>54</v>
       </c>
@@ -5650,7 +5664,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>41913</v>
       </c>
@@ -5670,7 +5684,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <f>EDATE(A11,1)</f>
         <v>41944</v>
@@ -5691,7 +5705,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <f t="shared" ref="A13:A64" si="0">EDATE(A12,1)</f>
         <v>41974</v>
@@ -5712,7 +5726,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>55</v>
       </c>
@@ -5730,7 +5744,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <f>EDATE(A13,1)</f>
         <v>42005</v>
@@ -5751,7 +5765,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <f t="shared" si="0"/>
         <v>42036</v>
@@ -5772,7 +5786,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <f t="shared" si="0"/>
         <v>42064</v>
@@ -5793,7 +5807,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <f t="shared" si="0"/>
         <v>42095</v>
@@ -5818,7 +5832,7 @@
         <v>42101</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f t="shared" si="0"/>
         <v>42125</v>
@@ -5839,7 +5853,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <f t="shared" si="0"/>
         <v>42156</v>
@@ -5866,7 +5880,7 @@
         <v>42158</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <f t="shared" si="0"/>
         <v>42186</v>
@@ -5893,7 +5907,7 @@
         <v>42200</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <f t="shared" si="0"/>
         <v>42217</v>
@@ -5920,7 +5934,7 @@
         <v>42222</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <f t="shared" si="0"/>
         <v>42248</v>
@@ -5947,7 +5961,7 @@
         <v>42275</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <f t="shared" si="0"/>
         <v>42278</v>
@@ -5974,7 +5988,7 @@
         <v>42299</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <f t="shared" si="0"/>
         <v>42309</v>
@@ -6001,7 +6015,7 @@
         <v>42313</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
       <c r="B26" s="12" t="s">
         <v>35</v>
@@ -6021,7 +6035,7 @@
         <v>42325</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <f>EDATE(A25,1)</f>
         <v>42339</v>
@@ -6048,7 +6062,7 @@
         <v>42356</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>56</v>
       </c>
@@ -6066,7 +6080,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <f>EDATE(A27,1)</f>
         <v>42370</v>
@@ -6091,7 +6105,7 @@
         <v>42374</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <f t="shared" si="0"/>
         <v>42401</v>
@@ -6116,7 +6130,7 @@
         <v>42419</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24"/>
       <c r="B31" s="12" t="s">
         <v>35</v>
@@ -6136,7 +6150,7 @@
         <v>42424</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24"/>
       <c r="B32" s="12" t="s">
         <v>59</v>
@@ -6158,7 +6172,7 @@
         <v>42422</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24"/>
       <c r="B33" s="12" t="s">
         <v>59</v>
@@ -6180,7 +6194,7 @@
         <v>42426</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <f>EDATE(A30,1)</f>
         <v>42430</v>
@@ -6207,7 +6221,7 @@
         <v>42440</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24"/>
       <c r="B35" s="12" t="s">
         <v>58</v>
@@ -6229,7 +6243,7 @@
         <v>42458</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="12" t="s">
         <v>60</v>
@@ -6251,7 +6265,7 @@
         <v>42486</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <f>EDATE(A34,1)</f>
         <v>42461</v>
@@ -6278,7 +6292,7 @@
         <v>42508</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <f t="shared" si="0"/>
         <v>42491</v>
@@ -6301,7 +6315,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="39"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <f t="shared" si="0"/>
         <v>42522</v>
@@ -6326,7 +6340,7 @@
         <v>42524</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <f t="shared" si="0"/>
         <v>42552</v>
@@ -6347,7 +6361,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <f t="shared" si="0"/>
         <v>42583</v>
@@ -6374,7 +6388,7 @@
         <v>42591</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <f t="shared" si="0"/>
         <v>42614</v>
@@ -6399,7 +6413,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <f t="shared" si="0"/>
         <v>42644</v>
@@ -6426,7 +6440,7 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <f>EDATE(A43,1)</f>
         <v>42675</v>
@@ -6453,7 +6467,7 @@
         <v>42670</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="12" t="s">
         <v>62</v>
@@ -6475,7 +6489,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <f>EDATE(A44,1)</f>
         <v>42705</v>
@@ -6502,7 +6516,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
       <c r="B47" s="21" t="s">
         <v>66</v>
@@ -6522,7 +6536,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
         <v>57</v>
       </c>
@@ -6540,7 +6554,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="24">
         <f>EDATE(A46,1)</f>
         <v>42736</v>
@@ -6565,7 +6579,7 @@
         <v>42790</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="24"/>
       <c r="B50" s="12" t="s">
         <v>59</v>
@@ -6587,7 +6601,7 @@
         <v>42788</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <f>EDATE(A49,1)</f>
         <v>42767</v>
@@ -6608,7 +6622,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <f t="shared" si="0"/>
         <v>42795</v>
@@ -6635,7 +6649,7 @@
         <v>42808</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
       <c r="B53" s="12" t="s">
         <v>60</v>
@@ -6657,7 +6671,7 @@
         <v>42823</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
       <c r="B54" s="12" t="s">
         <v>59</v>
@@ -6679,7 +6693,7 @@
         <v>42821</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <f>EDATE(A52,1)</f>
         <v>42826</v>
@@ -6706,7 +6720,7 @@
         <v>42850</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <f t="shared" si="0"/>
         <v>42856</v>
@@ -6733,7 +6747,7 @@
         <v>42874</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <f>EDATE(A56,1)</f>
         <v>42887</v>
@@ -6760,7 +6774,7 @@
         <v>42922</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
       <c r="B58" s="12" t="s">
         <v>60</v>
@@ -6782,7 +6796,7 @@
         <v>42937</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24">
         <f>EDATE(A57,1)</f>
         <v>42917</v>
@@ -6803,7 +6817,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24">
         <f t="shared" si="0"/>
         <v>42948</v>
@@ -6830,7 +6844,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24"/>
       <c r="B61" s="12" t="s">
         <v>59</v>
@@ -6852,7 +6866,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
         <f>EDATE(A60,1)</f>
         <v>42979</v>
@@ -6879,7 +6893,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <f t="shared" si="0"/>
         <v>43009</v>
@@ -6900,7 +6914,7 @@
       <c r="J63" s="13"/>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <f t="shared" si="0"/>
         <v>43040</v>
@@ -6925,7 +6939,7 @@
         <v>43059</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <f>EDATE(A64,1)</f>
         <v>43070</v>
@@ -6952,7 +6966,7 @@
         <v>43070</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24"/>
       <c r="B66" s="13" t="s">
         <v>59</v>
@@ -6974,7 +6988,7 @@
         <v>43097</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24"/>
       <c r="B67" s="13" t="s">
         <v>59</v>
@@ -6996,7 +7010,7 @@
         <v>43062</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24"/>
       <c r="B68" s="13" t="s">
         <v>60</v>
@@ -7018,7 +7032,7 @@
         <v>43091</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="31" t="s">
         <v>28</v>
       </c>
@@ -7036,7 +7050,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
         <v>43101</v>
       </c>
@@ -7060,7 +7074,7 @@
         <v>43119</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="24">
         <v>43132</v>
       </c>
@@ -7084,7 +7098,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="24"/>
       <c r="B72" s="13" t="s">
         <v>59</v>
@@ -7106,7 +7120,7 @@
         <v>43153</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="24">
         <v>43160</v>
       </c>
@@ -7128,7 +7142,7 @@
         <v>43185</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="24">
         <v>43191</v>
       </c>
@@ -7150,7 +7164,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="24"/>
       <c r="B75" s="12" t="s">
         <v>59</v>
@@ -7172,7 +7186,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="24">
         <v>43221</v>
       </c>
@@ -7196,7 +7210,7 @@
         <v>43228</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="24"/>
       <c r="B77" s="12" t="s">
         <v>59</v>
@@ -7218,7 +7232,7 @@
         <v>43222</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="31"/>
       <c r="B78" s="12" t="s">
         <v>73</v>
@@ -7238,7 +7252,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="24">
         <v>43252</v>
       </c>
@@ -7262,7 +7276,7 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="34"/>
       <c r="B80" s="21" t="s">
         <v>59</v>
@@ -7284,7 +7298,7 @@
         <v>43312</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="34"/>
       <c r="B81" s="21" t="s">
         <v>74</v>
@@ -7304,7 +7318,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="39"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="34">
         <v>43313</v>
       </c>
@@ -7328,7 +7342,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="34">
         <v>43344</v>
       </c>
@@ -7350,7 +7364,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="39"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="34">
         <v>43374</v>
       </c>
@@ -7374,7 +7388,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="34"/>
       <c r="B85" s="21" t="s">
         <v>77</v>
@@ -7394,7 +7408,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="34">
         <v>43405</v>
       </c>
@@ -7418,7 +7432,7 @@
         <v>43420</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="34"/>
       <c r="B87" s="21" t="s">
         <v>76</v>
@@ -7438,7 +7452,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="34">
         <v>43435</v>
       </c>
@@ -7460,7 +7474,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="34"/>
       <c r="B89" s="21" t="s">
         <v>78</v>
@@ -7480,7 +7494,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="31" t="s">
         <v>30</v>
       </c>
@@ -7498,7 +7512,7 @@
       <c r="J90" s="13"/>
       <c r="K90" s="16"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="34">
         <v>43497</v>
       </c>
@@ -7520,7 +7534,7 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="34"/>
       <c r="B92" s="21" t="s">
         <v>59</v>
@@ -7542,7 +7556,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="34">
         <v>43525</v>
       </c>
@@ -7564,7 +7578,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="34">
         <v>43556</v>
       </c>
@@ -7588,7 +7602,7 @@
         <v>43566</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="34"/>
       <c r="B95" s="21" t="s">
         <v>59</v>
@@ -7610,7 +7624,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="34">
         <v>43586</v>
       </c>
@@ -7630,7 +7644,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="34">
         <v>43647</v>
       </c>
@@ -7654,7 +7668,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="34">
         <v>43678</v>
       </c>
@@ -7678,7 +7692,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="34"/>
       <c r="B99" s="21" t="s">
         <v>62</v>
@@ -7700,7 +7714,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="34"/>
       <c r="B100" s="21" t="s">
         <v>60</v>
@@ -7722,7 +7736,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="34">
         <v>43709</v>
       </c>
@@ -7746,7 +7760,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="34">
         <v>43739</v>
       </c>
@@ -7770,7 +7784,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="34"/>
       <c r="B103" s="21" t="s">
         <v>60</v>
@@ -7792,7 +7806,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="34">
         <v>43800</v>
       </c>
@@ -7816,7 +7830,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="34"/>
       <c r="B105" s="21" t="s">
         <v>59</v>
@@ -7836,7 +7850,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="31" t="s">
         <v>31</v>
       </c>
@@ -7854,7 +7868,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="34">
         <v>43831</v>
       </c>
@@ -7876,7 +7890,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="34"/>
       <c r="B108" s="21" t="s">
         <v>59</v>
@@ -7898,7 +7912,7 @@
         <v>43848</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="34"/>
       <c r="B109" s="21" t="s">
         <v>83</v>
@@ -7918,7 +7932,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="34">
         <v>43862</v>
       </c>
@@ -7940,7 +7954,7 @@
         <v>43882</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="34">
         <v>43891</v>
       </c>
@@ -7962,7 +7976,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="34">
         <v>44013</v>
       </c>
@@ -7984,7 +7998,7 @@
         <v>44028</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="34"/>
       <c r="B113" s="21" t="s">
         <v>60</v>
@@ -8006,7 +8020,7 @@
         <v>44026</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="34"/>
       <c r="B114" s="21" t="s">
         <v>60</v>
@@ -8026,7 +8040,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="34">
         <v>44044</v>
       </c>
@@ -8050,7 +8064,7 @@
         <v>44059</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="34"/>
       <c r="B116" s="21" t="s">
         <v>59</v>
@@ -8072,7 +8086,7 @@
         <v>44063</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="34">
         <v>44075</v>
       </c>
@@ -8096,7 +8110,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="34"/>
       <c r="B118" s="21" t="s">
         <v>59</v>
@@ -8118,7 +8132,7 @@
         <v>44090</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="34"/>
       <c r="B119" s="21" t="s">
         <v>60</v>
@@ -8140,7 +8154,7 @@
         <v>44090</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="34"/>
       <c r="B120" s="21" t="s">
         <v>59</v>
@@ -8162,7 +8176,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="34">
         <v>44136</v>
       </c>
@@ -8184,7 +8198,7 @@
         <v>44152</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="34"/>
       <c r="B122" s="21" t="s">
         <v>59</v>
@@ -8206,7 +8220,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="31" t="s">
         <v>32</v>
       </c>
@@ -8224,7 +8238,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="34">
         <v>44197</v>
       </c>
@@ -8248,7 +8262,7 @@
         <v>44204</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="52"/>
       <c r="B125" s="16" t="s">
         <v>59</v>
@@ -8270,7 +8284,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="34">
         <v>44287</v>
       </c>
@@ -8292,7 +8306,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="34">
         <v>44317</v>
       </c>
@@ -8316,7 +8330,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="34">
         <v>44348</v>
       </c>
@@ -8340,7 +8354,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="34">
         <v>44378</v>
       </c>
@@ -8364,7 +8378,7 @@
         <v>44393</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="34">
         <v>44409</v>
       </c>
@@ -8388,7 +8402,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="34">
         <v>44470</v>
       </c>
@@ -8412,7 +8426,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="34"/>
       <c r="B132" s="21" t="s">
         <v>58</v>
@@ -8434,7 +8448,7 @@
         <v>44517</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="34">
         <v>44501</v>
       </c>
@@ -8458,7 +8472,7 @@
         <v>44525</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="31" t="s">
         <v>33</v>
       </c>
@@ -8476,7 +8490,7 @@
       <c r="J134" s="12"/>
       <c r="K134" s="21"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="34">
         <v>44593</v>
       </c>
@@ -8498,7 +8512,7 @@
         <v>44600</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="34"/>
       <c r="B136" s="21" t="s">
         <v>58</v>
@@ -8520,7 +8534,7 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="34"/>
       <c r="B137" s="21" t="s">
         <v>88</v>
@@ -8542,7 +8556,7 @@
         <v>44771</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="34"/>
       <c r="B138" s="21" t="s">
         <v>88</v>
@@ -8564,7 +8578,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="34"/>
       <c r="B139" s="21" t="s">
         <v>89</v>
@@ -8586,7 +8600,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="34"/>
       <c r="B140" s="21" t="s">
         <v>71</v>
@@ -8606,7 +8620,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="34"/>
       <c r="B141" s="21"/>
       <c r="C141" s="14"/>
@@ -8622,7 +8636,7 @@
       <c r="J141" s="12"/>
       <c r="K141" s="21"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="34"/>
       <c r="B142" s="21"/>
       <c r="C142" s="14"/>
@@ -8638,7 +8652,7 @@
       <c r="J142" s="12"/>
       <c r="K142" s="21"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="34"/>
       <c r="B143" s="21"/>
       <c r="C143" s="14"/>
@@ -8654,7 +8668,7 @@
       <c r="J143" s="12"/>
       <c r="K143" s="21"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="34"/>
       <c r="B144" s="21"/>
       <c r="C144" s="14"/>
@@ -8670,7 +8684,7 @@
       <c r="J144" s="12"/>
       <c r="K144" s="21"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="34"/>
       <c r="B145" s="21"/>
       <c r="C145" s="14"/>
@@ -8686,7 +8700,7 @@
       <c r="J145" s="12"/>
       <c r="K145" s="21"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="34"/>
       <c r="B146" s="21"/>
       <c r="C146" s="14"/>
@@ -8702,7 +8716,7 @@
       <c r="J146" s="12"/>
       <c r="K146" s="21"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="34"/>
       <c r="B147" s="21"/>
       <c r="C147" s="14"/>
@@ -8718,7 +8732,7 @@
       <c r="J147" s="12"/>
       <c r="K147" s="21"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="34"/>
       <c r="B148" s="21"/>
       <c r="C148" s="14"/>
@@ -8734,7 +8748,7 @@
       <c r="J148" s="12"/>
       <c r="K148" s="21"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="34"/>
       <c r="B149" s="21"/>
       <c r="C149" s="14"/>
@@ -8750,7 +8764,7 @@
       <c r="J149" s="12"/>
       <c r="K149" s="21"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="34"/>
       <c r="B150" s="21"/>
       <c r="C150" s="14"/>
@@ -8766,7 +8780,7 @@
       <c r="J150" s="12"/>
       <c r="K150" s="21"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="34"/>
       <c r="B151" s="21"/>
       <c r="C151" s="14"/>
@@ -8782,7 +8796,7 @@
       <c r="J151" s="12"/>
       <c r="K151" s="21"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="34"/>
       <c r="B152" s="21"/>
       <c r="C152" s="14"/>
@@ -8798,7 +8812,7 @@
       <c r="J152" s="12"/>
       <c r="K152" s="21"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="34"/>
       <c r="B153" s="21"/>
       <c r="C153" s="14"/>
@@ -8814,7 +8828,7 @@
       <c r="J153" s="12"/>
       <c r="K153" s="21"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="34"/>
       <c r="B154" s="21"/>
       <c r="C154" s="14"/>
@@ -8830,7 +8844,7 @@
       <c r="J154" s="12"/>
       <c r="K154" s="21"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="34"/>
       <c r="B155" s="21"/>
       <c r="C155" s="14"/>
@@ -8846,7 +8860,7 @@
       <c r="J155" s="12"/>
       <c r="K155" s="21"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="52"/>
       <c r="B156" s="16"/>
       <c r="C156" s="36"/>
@@ -8864,23 +8878,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8904,28 +8918,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="44" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="44" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>44</v>
       </c>
@@ -8938,7 +8952,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>36</v>
       </c>
@@ -8967,7 +8981,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="D3" s="12"/>
@@ -8991,17 +9005,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="42"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="43" t="s">
         <v>40</v>
       </c>
@@ -9022,7 +9036,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="44">
         <v>1</v>
       </c>
@@ -9049,7 +9063,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="44">
         <v>2</v>
       </c>
@@ -9075,7 +9089,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="44">
         <v>3</v>
       </c>
@@ -9101,7 +9115,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="44">
         <v>4</v>
       </c>
@@ -9127,7 +9141,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="44">
         <v>5</v>
       </c>
@@ -9153,7 +9167,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="44">
         <v>6</v>
       </c>
@@ -9179,7 +9193,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="44">
         <v>7</v>
       </c>
@@ -9205,7 +9219,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="44">
         <v>8</v>
       </c>
@@ -9231,7 +9245,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="44">
         <v>9</v>
       </c>
@@ -9251,7 +9265,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="44">
         <v>10</v>
       </c>
@@ -9271,7 +9285,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="44">
         <v>11</v>
       </c>
@@ -9291,7 +9305,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="44">
         <v>12</v>
       </c>
@@ -9312,7 +9326,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="44">
         <v>13</v>
       </c>
@@ -9333,7 +9347,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="44">
         <v>14</v>
       </c>
@@ -9354,7 +9368,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="44">
         <v>15</v>
       </c>
@@ -9375,7 +9389,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="44">
         <v>16</v>
       </c>
@@ -9396,7 +9410,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="44">
         <v>17</v>
       </c>
@@ -9417,7 +9431,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="44">
         <v>18</v>
       </c>
@@ -9438,7 +9452,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="44">
         <v>19</v>
       </c>
@@ -9459,7 +9473,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="44">
         <v>20</v>
       </c>
@@ -9480,7 +9494,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="44">
         <v>21</v>
       </c>
@@ -9501,7 +9515,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="44">
         <v>22</v>
       </c>
@@ -9522,7 +9536,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="44">
         <v>23</v>
       </c>
@@ -9543,7 +9557,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="44">
         <v>24</v>
       </c>
@@ -9564,7 +9578,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="44">
         <v>25</v>
       </c>
@@ -9585,7 +9599,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="44">
         <v>26</v>
       </c>
@@ -9606,7 +9620,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="44">
         <v>27</v>
       </c>
@@ -9627,7 +9641,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="44">
         <v>28</v>
       </c>
@@ -9648,7 +9662,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="44">
         <v>29</v>
       </c>
@@ -9669,7 +9683,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="44">
         <v>30</v>
       </c>
@@ -9690,7 +9704,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="44">
         <v>31</v>
       </c>
@@ -9711,7 +9725,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="44">
         <v>32</v>
       </c>
@@ -9720,7 +9734,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="44">
         <v>33</v>
       </c>
@@ -9729,7 +9743,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="44">
         <v>34</v>
       </c>
@@ -9738,7 +9752,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="44">
         <v>35</v>
       </c>
@@ -9747,7 +9761,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="44">
         <v>36</v>
       </c>
@@ -9756,7 +9770,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="44">
         <v>37</v>
       </c>
@@ -9765,7 +9779,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="44">
         <v>38</v>
       </c>
@@ -9774,7 +9788,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="44">
         <v>39</v>
       </c>
@@ -9783,7 +9797,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="44">
         <v>40</v>
       </c>
@@ -9792,7 +9806,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="44">
         <v>41</v>
       </c>
@@ -9801,7 +9815,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="44">
         <v>42</v>
       </c>
@@ -9810,7 +9824,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="44">
         <v>43</v>
       </c>
@@ -9819,7 +9833,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="44">
         <v>44</v>
       </c>
@@ -9828,7 +9842,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="44">
         <v>45</v>
       </c>
@@ -9837,7 +9851,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="44">
         <v>46</v>
       </c>
@@ -9846,7 +9860,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="44">
         <v>47</v>
       </c>
@@ -9855,7 +9869,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="44">
         <v>48</v>
       </c>
@@ -9864,7 +9878,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="44">
         <v>49</v>
       </c>
@@ -9873,7 +9887,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="44">
         <v>50</v>
       </c>
@@ -9882,7 +9896,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="44">
         <v>51</v>
       </c>
@@ -9891,7 +9905,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="44">
         <v>52</v>
       </c>
@@ -9900,7 +9914,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="44">
         <v>53</v>
       </c>
@@ -9909,7 +9923,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="44">
         <v>54</v>
       </c>
@@ -9918,7 +9932,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="44">
         <v>55</v>
       </c>
@@ -9927,7 +9941,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="44">
         <v>56</v>
       </c>
@@ -9936,7 +9950,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="44">
         <v>57</v>
       </c>
@@ -9945,7 +9959,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="44">
         <v>58</v>
       </c>
@@ -9954,7 +9968,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="44">
         <v>59</v>
       </c>
@@ -9963,7 +9977,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="44">
         <v>60</v>
       </c>
@@ -9972,7 +9986,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
